--- a/R/data/quiz230918_tmp.xlsx
+++ b/R/data/quiz230918_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5853" uniqueCount="1300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5973" uniqueCount="1326">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3911,6 +3911,84 @@
   </si>
   <si>
     <t>유설진</t>
+  </si>
+  <si>
+    <t>hhuning8814@gmail.com</t>
+  </si>
+  <si>
+    <t>임지우</t>
+  </si>
+  <si>
+    <t>chominseo1029@naver.com</t>
+  </si>
+  <si>
+    <t>조민서</t>
+  </si>
+  <si>
+    <t>psp528500@gmail.com</t>
+  </si>
+  <si>
+    <t>박준형</t>
+  </si>
+  <si>
+    <t>gumamunu@naver.com</t>
+  </si>
+  <si>
+    <t>김지영</t>
+  </si>
+  <si>
+    <t>02c06c@naver.com</t>
+  </si>
+  <si>
+    <t>김채현</t>
+  </si>
+  <si>
+    <t>td040802@naver.com</t>
+  </si>
+  <si>
+    <t>김태희</t>
+  </si>
+  <si>
+    <t>pjuns502@gmail.com</t>
+  </si>
+  <si>
+    <t>박준현</t>
+  </si>
+  <si>
+    <t>dbwjd_1230@naver.com</t>
+  </si>
+  <si>
+    <t>김유정</t>
+  </si>
+  <si>
+    <t>alsgk03@naver.com</t>
+  </si>
+  <si>
+    <t>박민하</t>
+  </si>
+  <si>
+    <t>skaguddl92@naver.com</t>
+  </si>
+  <si>
+    <t>컴퓨터공학과</t>
+  </si>
+  <si>
+    <t>김남형</t>
+  </si>
+  <si>
+    <t>20226760@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>Ai의료융합</t>
+  </si>
+  <si>
+    <t>이민홍</t>
+  </si>
+  <si>
+    <t>psjj3840@gmail.cm</t>
+  </si>
+  <si>
+    <t>박서진</t>
   </si>
 </sst>
 </file>
@@ -28171,6 +28249,498 @@
         <v>40</v>
       </c>
     </row>
+    <row r="586">
+      <c r="A586" s="2">
+        <v>45197.3965374074</v>
+      </c>
+      <c r="B586" s="3" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C586" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D586" s="3">
+        <v>2.0236635E7</v>
+      </c>
+      <c r="E586" s="3" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F586" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G586" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H586" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I586" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J586" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K586" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L586" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N586" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="2">
+        <v>45197.44892631944</v>
+      </c>
+      <c r="B587" s="3" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C587" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D587" s="3">
+        <v>2.0233959E7</v>
+      </c>
+      <c r="E587" s="3" t="s">
+        <v>1303</v>
+      </c>
+      <c r="F587" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G587" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H587" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I587" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J587" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K587" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L587" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M587" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="2">
+        <v>45197.6732406713</v>
+      </c>
+      <c r="B588" s="3" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C588" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D588" s="3">
+        <v>2.023296E7</v>
+      </c>
+      <c r="E588" s="3" t="s">
+        <v>1305</v>
+      </c>
+      <c r="F588" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G588" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H588" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I588" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J588" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K588" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L588" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N588" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="2">
+        <v>45197.68760100694</v>
+      </c>
+      <c r="B589" s="3" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C589" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D589" s="3">
+        <v>2.0236229E7</v>
+      </c>
+      <c r="E589" s="3" t="s">
+        <v>1307</v>
+      </c>
+      <c r="F589" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G589" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H589" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I589" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J589" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K589" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L589" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N589" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="2">
+        <v>45197.71943761574</v>
+      </c>
+      <c r="B590" s="3" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C590" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="D590" s="3">
+        <v>2.0217055E7</v>
+      </c>
+      <c r="E590" s="3" t="s">
+        <v>1309</v>
+      </c>
+      <c r="F590" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G590" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H590" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I590" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J590" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K590" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L590" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N590" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="2">
+        <v>45197.73922251158</v>
+      </c>
+      <c r="B591" s="3" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C591" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D591" s="3">
+        <v>2.0231213E7</v>
+      </c>
+      <c r="E591" s="3" t="s">
+        <v>1311</v>
+      </c>
+      <c r="F591" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G591" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H591" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I591" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J591" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K591" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L591" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N591" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="2">
+        <v>45197.739466886575</v>
+      </c>
+      <c r="B592" s="3" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C592" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D592" s="3">
+        <v>2.0236617E7</v>
+      </c>
+      <c r="E592" s="3" t="s">
+        <v>1313</v>
+      </c>
+      <c r="F592" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G592" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H592" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I592" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J592" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K592" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L592" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N592" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="2">
+        <v>45197.764455</v>
+      </c>
+      <c r="B593" s="3" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C593" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D593" s="3">
+        <v>2.0232712E7</v>
+      </c>
+      <c r="E593" s="3" t="s">
+        <v>1315</v>
+      </c>
+      <c r="F593" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G593" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H593" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I593" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J593" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K593" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L593" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M593" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="2">
+        <v>45197.78523981481</v>
+      </c>
+      <c r="B594" s="3" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C594" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D594" s="3">
+        <v>2.0222213E7</v>
+      </c>
+      <c r="E594" s="3" t="s">
+        <v>1317</v>
+      </c>
+      <c r="F594" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G594" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="H594" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I594" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J594" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K594" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L594" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N594" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="2">
+        <v>45197.793859247686</v>
+      </c>
+      <c r="B595" s="3" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C595" s="3" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D595" s="3">
+        <v>2.017511E7</v>
+      </c>
+      <c r="E595" s="3" t="s">
+        <v>1320</v>
+      </c>
+      <c r="F595" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G595" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H595" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I595" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J595" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K595" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L595" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M595" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="2">
+        <v>45197.798003159725</v>
+      </c>
+      <c r="B596" s="3" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C596" s="3" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D596" s="3">
+        <v>2.022676E7</v>
+      </c>
+      <c r="E596" s="3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="F596" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G596" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H596" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I596" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J596" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K596" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L596" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M596" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="2">
+        <v>45197.79873461806</v>
+      </c>
+      <c r="B597" s="3" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C597" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="D597" s="3">
+        <v>2.0215154E7</v>
+      </c>
+      <c r="E597" s="3" t="s">
+        <v>1325</v>
+      </c>
+      <c r="F597" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G597" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H597" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I597" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J597" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K597" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L597" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M597" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/R/data/quiz230918_tmp.xlsx
+++ b/R/data/quiz230918_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5973" uniqueCount="1326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6003" uniqueCount="1332">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3989,6 +3989,24 @@
   </si>
   <si>
     <t>박서진</t>
+  </si>
+  <si>
+    <t>yeon-jin22@naver.com</t>
+  </si>
+  <si>
+    <t>최연진</t>
+  </si>
+  <si>
+    <t>hyunseo4370@gmail.com</t>
+  </si>
+  <si>
+    <t>040610</t>
+  </si>
+  <si>
+    <t>rladbqls1728@naver.com</t>
+  </si>
+  <si>
+    <t>김유빈</t>
   </si>
 </sst>
 </file>
@@ -4025,7 +4043,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -4037,6 +4055,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -28741,6 +28762,129 @@
         <v>30</v>
       </c>
     </row>
+    <row r="598">
+      <c r="A598" s="2">
+        <v>45197.83603706019</v>
+      </c>
+      <c r="B598" s="3" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C598" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D598" s="3">
+        <v>2.0233256E7</v>
+      </c>
+      <c r="E598" s="3" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F598" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G598" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H598" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I598" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J598" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K598" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L598" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N598" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="2">
+        <v>45197.882089375</v>
+      </c>
+      <c r="B599" s="3" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C599" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D599" s="3">
+        <v>2.0236636E7</v>
+      </c>
+      <c r="E599" s="5" t="s">
+        <v>1329</v>
+      </c>
+      <c r="F599" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G599" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H599" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I599" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J599" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K599" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L599" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M599" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="2">
+        <v>45197.90739916667</v>
+      </c>
+      <c r="B600" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C600" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D600" s="3">
+        <v>2.0232412E7</v>
+      </c>
+      <c r="E600" s="3" t="s">
+        <v>1331</v>
+      </c>
+      <c r="F600" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G600" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H600" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I600" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J600" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K600" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L600" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N600" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/R/data/quiz230918_tmp.xlsx
+++ b/R/data/quiz230918_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6003" uniqueCount="1332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7193" uniqueCount="1568">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -4007,6 +4007,714 @@
   </si>
   <si>
     <t>김유빈</t>
+  </si>
+  <si>
+    <t>dlstn3085@naver.com</t>
+  </si>
+  <si>
+    <t>한인수</t>
+  </si>
+  <si>
+    <t>20231209@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>김정서</t>
+  </si>
+  <si>
+    <t>umseoy2@gmail.com</t>
+  </si>
+  <si>
+    <t>엄서영</t>
+  </si>
+  <si>
+    <t>tnqls06082@naver.com</t>
+  </si>
+  <si>
+    <t>조수빈</t>
+  </si>
+  <si>
+    <t>kimi9923@naver.com</t>
+  </si>
+  <si>
+    <t>정민우</t>
+  </si>
+  <si>
+    <t>abc810852@gmail.com</t>
+  </si>
+  <si>
+    <t>심지환</t>
+  </si>
+  <si>
+    <t>hwangyejin2000@gmail.com</t>
+  </si>
+  <si>
+    <t>황예진</t>
+  </si>
+  <si>
+    <t>yewonshine@naver.com</t>
+  </si>
+  <si>
+    <t>허예원</t>
+  </si>
+  <si>
+    <t>coolsw98@naver.com</t>
+  </si>
+  <si>
+    <t>글로벌학부 정보법과학전공</t>
+  </si>
+  <si>
+    <t>jjiwoong0212@gmail.com</t>
+  </si>
+  <si>
+    <t>이지웅</t>
+  </si>
+  <si>
+    <t>wkdqls9988@gmail.com</t>
+  </si>
+  <si>
+    <t>장현빈</t>
+  </si>
+  <si>
+    <t>hjkiubb@naver.com</t>
+  </si>
+  <si>
+    <t>박재은</t>
+  </si>
+  <si>
+    <t>h20205265@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>최준영</t>
+  </si>
+  <si>
+    <t>a01093819049@gmail.com</t>
+  </si>
+  <si>
+    <t>김서영</t>
+  </si>
+  <si>
+    <t>khjkhj0314@naver.com</t>
+  </si>
+  <si>
+    <t>김현종</t>
+  </si>
+  <si>
+    <t>chaeyun7206@gmail.com</t>
+  </si>
+  <si>
+    <t>배채윤</t>
+  </si>
+  <si>
+    <t>jhyeong234@naver.com</t>
+  </si>
+  <si>
+    <t>김준형</t>
+  </si>
+  <si>
+    <t>b0612river@gmail.com</t>
+  </si>
+  <si>
+    <t>최정원</t>
+  </si>
+  <si>
+    <t>fetal_3258@naver.com</t>
+  </si>
+  <si>
+    <t>유여름</t>
+  </si>
+  <si>
+    <t>minky1501@gmail.com</t>
+  </si>
+  <si>
+    <t>최민경</t>
+  </si>
+  <si>
+    <t>daeun8937@naver.com</t>
+  </si>
+  <si>
+    <t>최다은</t>
+  </si>
+  <si>
+    <t>hankyo777@naver.com</t>
+  </si>
+  <si>
+    <t>데이터사시언스학부</t>
+  </si>
+  <si>
+    <t>장성주</t>
+  </si>
+  <si>
+    <t>laurano.first@gmail.com</t>
+  </si>
+  <si>
+    <t>한서연</t>
+  </si>
+  <si>
+    <t>seoseo2276@naver.com</t>
+  </si>
+  <si>
+    <t>uy7249@gmail.com</t>
+  </si>
+  <si>
+    <t>이다인</t>
+  </si>
+  <si>
+    <t>doctykbw@gmail.com</t>
+  </si>
+  <si>
+    <t>김범우</t>
+  </si>
+  <si>
+    <t>040415kimdh@naver.com</t>
+  </si>
+  <si>
+    <t>fodhzks1@naver.com</t>
+  </si>
+  <si>
+    <t>yeji28667@naver.com</t>
+  </si>
+  <si>
+    <t>신예지</t>
+  </si>
+  <si>
+    <t>a01035025756@gmail.com</t>
+  </si>
+  <si>
+    <t>이건희</t>
+  </si>
+  <si>
+    <t>freenix1001@naver.com</t>
+  </si>
+  <si>
+    <t>강서연</t>
+  </si>
+  <si>
+    <t>julielie22@gmail.com</t>
+  </si>
+  <si>
+    <t>최윤서</t>
+  </si>
+  <si>
+    <t>kangsamy2@gmail.com</t>
+  </si>
+  <si>
+    <t>강새미</t>
+  </si>
+  <si>
+    <t>dlwjdgh0808@naver.com</t>
+  </si>
+  <si>
+    <t>이정호</t>
+  </si>
+  <si>
+    <t>sulnak159@gamil.com</t>
+  </si>
+  <si>
+    <t>김남준</t>
+  </si>
+  <si>
+    <t>year0309@naver.com</t>
+  </si>
+  <si>
+    <t>박소희</t>
+  </si>
+  <si>
+    <t>pks5176275@naver.com</t>
+  </si>
+  <si>
+    <t>박광성</t>
+  </si>
+  <si>
+    <t>duswn8911@naver.com</t>
+  </si>
+  <si>
+    <t>김연주</t>
+  </si>
+  <si>
+    <t>pearlzero@naver.com</t>
+  </si>
+  <si>
+    <t>진주영</t>
+  </si>
+  <si>
+    <t>jonggwang0104@naver.com</t>
+  </si>
+  <si>
+    <t>박종광</t>
+  </si>
+  <si>
+    <t>cho2scho2s@gmail.com</t>
+  </si>
+  <si>
+    <t>조은해</t>
+  </si>
+  <si>
+    <t>seongheun2004@gmail.com</t>
+  </si>
+  <si>
+    <t>지성흔</t>
+  </si>
+  <si>
+    <t>young960403@gmail.com</t>
+  </si>
+  <si>
+    <t>장영준</t>
+  </si>
+  <si>
+    <t>dufud7004@naver.com</t>
+  </si>
+  <si>
+    <t>윤여령</t>
+  </si>
+  <si>
+    <t>bsw030409@naver.com</t>
+  </si>
+  <si>
+    <t>백승우</t>
+  </si>
+  <si>
+    <t>kbk0880@naver.com</t>
+  </si>
+  <si>
+    <t>강병철</t>
+  </si>
+  <si>
+    <t>seo1020102p@naver.com</t>
+  </si>
+  <si>
+    <t>박재연</t>
+  </si>
+  <si>
+    <t>sinjisu030426@gmail.com</t>
+  </si>
+  <si>
+    <t>신지수</t>
+  </si>
+  <si>
+    <t>tpdud0049@naver.com</t>
+  </si>
+  <si>
+    <t>김세영</t>
+  </si>
+  <si>
+    <t>sc4153349@gmail.com</t>
+  </si>
+  <si>
+    <t>차승윤</t>
+  </si>
+  <si>
+    <t>jio3222019@gmail.com</t>
+  </si>
+  <si>
+    <t>서상욱</t>
+  </si>
+  <si>
+    <t>tjdals041122@gmail.com</t>
+  </si>
+  <si>
+    <t>전성민</t>
+  </si>
+  <si>
+    <t>k01050531595@gmail.com</t>
+  </si>
+  <si>
+    <t>권승현</t>
+  </si>
+  <si>
+    <t>wnruddms@naver.com</t>
+  </si>
+  <si>
+    <t>주경은</t>
+  </si>
+  <si>
+    <t>20217071@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>오선민</t>
+  </si>
+  <si>
+    <t>donguk3121@gmail.com</t>
+  </si>
+  <si>
+    <t>신동욱</t>
+  </si>
+  <si>
+    <t>emily_2003@naver.com</t>
+  </si>
+  <si>
+    <t>천예령</t>
+  </si>
+  <si>
+    <t>ai20233638@gmail.com</t>
+  </si>
+  <si>
+    <t>장예은</t>
+  </si>
+  <si>
+    <t>ehgnsdl5110312@naver.com</t>
+  </si>
+  <si>
+    <t>1207dpwls@naver.com</t>
+  </si>
+  <si>
+    <t>주예진</t>
+  </si>
+  <si>
+    <t>was193567@gmail.com</t>
+  </si>
+  <si>
+    <t>권유진</t>
+  </si>
+  <si>
+    <t>psm4155@gmail.com</t>
+  </si>
+  <si>
+    <t>박진주</t>
+  </si>
+  <si>
+    <t>dbswotjq12@naver.com</t>
+  </si>
+  <si>
+    <t>윤재섭</t>
+  </si>
+  <si>
+    <t>gahyun030405@gmail.com</t>
+  </si>
+  <si>
+    <t>윤가현</t>
+  </si>
+  <si>
+    <t>theyubin@naver.com</t>
+  </si>
+  <si>
+    <t>이유빈</t>
+  </si>
+  <si>
+    <t>seohonglimmm@gmail.com</t>
+  </si>
+  <si>
+    <t>임서홍</t>
+  </si>
+  <si>
+    <t>sjh8358000@naver.com</t>
+  </si>
+  <si>
+    <t>손지후</t>
+  </si>
+  <si>
+    <t>sjm3756@naver.com</t>
+  </si>
+  <si>
+    <t>금융재무</t>
+  </si>
+  <si>
+    <t>서장민</t>
+  </si>
+  <si>
+    <t>leeyen1215@naver.com</t>
+  </si>
+  <si>
+    <t>이예인</t>
+  </si>
+  <si>
+    <t>kimhongik03@naver.com</t>
+  </si>
+  <si>
+    <t>김홍익</t>
+  </si>
+  <si>
+    <t>tkdgns8006@naver.com</t>
+  </si>
+  <si>
+    <t>이상훈</t>
+  </si>
+  <si>
+    <t>gwkang0330@gmail.com</t>
+  </si>
+  <si>
+    <t>강건우</t>
+  </si>
+  <si>
+    <t>jihongg0531@gmail.com</t>
+  </si>
+  <si>
+    <t>김지홍</t>
+  </si>
+  <si>
+    <t>miso993722@naver.com</t>
+  </si>
+  <si>
+    <t>김미소</t>
+  </si>
+  <si>
+    <t>jsk8070@naver.com</t>
+  </si>
+  <si>
+    <t>김세아</t>
+  </si>
+  <si>
+    <t>richhjin@naver.com</t>
+  </si>
+  <si>
+    <t>환경셍명공학과</t>
+  </si>
+  <si>
+    <t>jshong01@gmail.com</t>
+  </si>
+  <si>
+    <t>홍준성</t>
+  </si>
+  <si>
+    <t>ruye0114@naver.com</t>
+  </si>
+  <si>
+    <t>류영서</t>
+  </si>
+  <si>
+    <t>isol62@naver.com</t>
+  </si>
+  <si>
+    <t>육이솔</t>
+  </si>
+  <si>
+    <t>suani3176@gmail.com</t>
+  </si>
+  <si>
+    <t>박수안</t>
+  </si>
+  <si>
+    <t>rlagkdud114@naver.com</t>
+  </si>
+  <si>
+    <t>김하영</t>
+  </si>
+  <si>
+    <t>YOUNGPRINCEB612@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>송원혁</t>
+  </si>
+  <si>
+    <t>psb5150@naver.com</t>
+  </si>
+  <si>
+    <t>박수빈</t>
+  </si>
+  <si>
+    <t>ryuthgud@naver.com</t>
+  </si>
+  <si>
+    <t>류소형</t>
+  </si>
+  <si>
+    <t>rhdwl3656@naver.com</t>
+  </si>
+  <si>
+    <t>함예빈</t>
+  </si>
+  <si>
+    <t>yeonjoon9900@gmail.com</t>
+  </si>
+  <si>
+    <t>이연준</t>
+  </si>
+  <si>
+    <t>rkdtmdrn1018@naver.com</t>
+  </si>
+  <si>
+    <t>강승구</t>
+  </si>
+  <si>
+    <t>gmldnjs6885@naver.com</t>
+  </si>
+  <si>
+    <t>손희원</t>
+  </si>
+  <si>
+    <t>amdo0421@gmail.com</t>
+  </si>
+  <si>
+    <t>이은빈</t>
+  </si>
+  <si>
+    <t>iceflower082@gmail.com</t>
+  </si>
+  <si>
+    <t>한지우</t>
+  </si>
+  <si>
+    <t>chm040305@naver.com</t>
+  </si>
+  <si>
+    <t>최현민</t>
+  </si>
+  <si>
+    <t>ind_b3@naver.com</t>
+  </si>
+  <si>
+    <t>김지안</t>
+  </si>
+  <si>
+    <t>kimyebin0628@naver.com</t>
+  </si>
+  <si>
+    <t>김예빈</t>
+  </si>
+  <si>
+    <t>k28119813@gmail.com</t>
+  </si>
+  <si>
+    <t>김태은</t>
+  </si>
+  <si>
+    <t>rladyddus789@gmail.com</t>
+  </si>
+  <si>
+    <t>김용연</t>
+  </si>
+  <si>
+    <t>chs1886@naver.com</t>
+  </si>
+  <si>
+    <t>최현승</t>
+  </si>
+  <si>
+    <t>pmr0093@naver.com</t>
+  </si>
+  <si>
+    <t>박미래</t>
+  </si>
+  <si>
+    <t>cje03112@naver.com</t>
+  </si>
+  <si>
+    <t>최민석</t>
+  </si>
+  <si>
+    <t>dennis121691@gmail.com</t>
+  </si>
+  <si>
+    <t>데이터테크전공</t>
+  </si>
+  <si>
+    <t>jonahkim4415@gmail.com</t>
+  </si>
+  <si>
+    <t>김요나</t>
+  </si>
+  <si>
+    <t>ssw12099@naver.com</t>
+  </si>
+  <si>
+    <t>소선웅</t>
+  </si>
+  <si>
+    <t>audwlswlghd7@naver.com</t>
+  </si>
+  <si>
+    <t>신명진</t>
+  </si>
+  <si>
+    <t>janghangyeol0304@gmail.com</t>
+  </si>
+  <si>
+    <t>장한결</t>
+  </si>
+  <si>
+    <t>jsy5233406@naver.com</t>
+  </si>
+  <si>
+    <t>정서연</t>
+  </si>
+  <si>
+    <t>zzolle424@naver.com</t>
+  </si>
+  <si>
+    <t>전지호</t>
+  </si>
+  <si>
+    <t>vjk92243@naver.com</t>
+  </si>
+  <si>
+    <t>백준열</t>
+  </si>
+  <si>
+    <t>choijoonhyuk1412@naver.com</t>
+  </si>
+  <si>
+    <t>leetaeyang00@gmail.com</t>
+  </si>
+  <si>
+    <t>이태양</t>
+  </si>
+  <si>
+    <t>leegijae040209@gmail.com</t>
+  </si>
+  <si>
+    <t>이윤</t>
+  </si>
+  <si>
+    <t>lgb4750@naver.com</t>
+  </si>
+  <si>
+    <t>반도체-디스플레이스쿨</t>
+  </si>
+  <si>
+    <t>hyunjong9951@gmail.com</t>
+  </si>
+  <si>
+    <t>디스플레이학과</t>
+  </si>
+  <si>
+    <t>qwop7845@naver.com</t>
+  </si>
+  <si>
+    <t>최시연</t>
+  </si>
+  <si>
+    <t>onlywon404@naver.com</t>
+  </si>
+  <si>
+    <t>백경원</t>
+  </si>
+  <si>
+    <t>djdodhrghr@naver.com</t>
+  </si>
+  <si>
+    <t>융합신소재공학전공</t>
+  </si>
+  <si>
+    <t>송서현</t>
+  </si>
+  <si>
+    <t>sanghyeongim33@naver.com</t>
+  </si>
+  <si>
+    <t>김상현</t>
+  </si>
+  <si>
+    <t>luv7253@naver.com</t>
+  </si>
+  <si>
+    <t>임아리</t>
+  </si>
+  <si>
+    <t>orenbut22@gmail.com</t>
+  </si>
+  <si>
+    <t>윤재은</t>
+  </si>
+  <si>
+    <t>pokari505@naver.com</t>
+  </si>
+  <si>
+    <t>임경섭</t>
+  </si>
+  <si>
+    <t>qwertyuiop8437@gmail.com</t>
+  </si>
+  <si>
+    <t>정수환</t>
   </si>
 </sst>
 </file>
@@ -28885,6 +29593,4885 @@
         <v>22</v>
       </c>
     </row>
+    <row r="601">
+      <c r="A601" s="2">
+        <v>45197.9903728125</v>
+      </c>
+      <c r="B601" s="3" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C601" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D601" s="3">
+        <v>2.0192145E7</v>
+      </c>
+      <c r="E601" s="3" t="s">
+        <v>1333</v>
+      </c>
+      <c r="F601" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G601" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H601" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I601" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J601" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K601" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L601" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N601" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="2">
+        <v>45198.10886078703</v>
+      </c>
+      <c r="B602" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C602" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D602" s="3">
+        <v>2.0231209E7</v>
+      </c>
+      <c r="E602" s="3" t="s">
+        <v>1335</v>
+      </c>
+      <c r="F602" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G602" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H602" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I602" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J602" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K602" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L602" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N602" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="2">
+        <v>45198.121723449076</v>
+      </c>
+      <c r="B603" s="3" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C603" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D603" s="3">
+        <v>2.0233939E7</v>
+      </c>
+      <c r="E603" s="3" t="s">
+        <v>1337</v>
+      </c>
+      <c r="F603" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G603" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H603" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I603" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J603" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K603" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L603" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N603" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="2">
+        <v>45198.16362104166</v>
+      </c>
+      <c r="B604" s="3" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C604" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D604" s="3">
+        <v>2.0221728E7</v>
+      </c>
+      <c r="E604" s="3" t="s">
+        <v>1339</v>
+      </c>
+      <c r="F604" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G604" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H604" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I604" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J604" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K604" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L604" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N604" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="2">
+        <v>45198.42243371528</v>
+      </c>
+      <c r="B605" s="3" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C605" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D605" s="3">
+        <v>2.0234147E7</v>
+      </c>
+      <c r="E605" s="3" t="s">
+        <v>1341</v>
+      </c>
+      <c r="F605" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G605" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H605" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I605" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J605" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K605" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L605" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N605" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="2">
+        <v>45198.60269396991</v>
+      </c>
+      <c r="B606" s="3" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C606" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D606" s="3">
+        <v>2.0235201E7</v>
+      </c>
+      <c r="E606" s="3" t="s">
+        <v>1343</v>
+      </c>
+      <c r="F606" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G606" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H606" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I606" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J606" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K606" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L606" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N606" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="2">
+        <v>45198.63153052083</v>
+      </c>
+      <c r="B607" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C607" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="D607" s="3">
+        <v>2.0192241E7</v>
+      </c>
+      <c r="E607" s="3" t="s">
+        <v>1345</v>
+      </c>
+      <c r="F607" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G607" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H607" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I607" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J607" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K607" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L607" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N607" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="2">
+        <v>45198.658188229165</v>
+      </c>
+      <c r="B608" s="3" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C608" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D608" s="3">
+        <v>2.0217122E7</v>
+      </c>
+      <c r="E608" s="3" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F608" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G608" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H608" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I608" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J608" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K608" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L608" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N608" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="2">
+        <v>45198.67713622685</v>
+      </c>
+      <c r="B609" s="3" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C609" s="3" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D609" s="3">
+        <v>2.020641E7</v>
+      </c>
+      <c r="E609" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="F609" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G609" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H609" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I609" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J609" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K609" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L609" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N609" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="2">
+        <v>45198.68133946759</v>
+      </c>
+      <c r="B610" s="3" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C610" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="D610" s="3">
+        <v>2.0233634E7</v>
+      </c>
+      <c r="E610" s="3" t="s">
+        <v>1351</v>
+      </c>
+      <c r="F610" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G610" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H610" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I610" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J610" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K610" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L610" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N610" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="2">
+        <v>45198.6900737963</v>
+      </c>
+      <c r="B611" s="3" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C611" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D611" s="3">
+        <v>2.0185288E7</v>
+      </c>
+      <c r="E611" s="3" t="s">
+        <v>1353</v>
+      </c>
+      <c r="F611" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G611" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H611" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I611" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J611" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K611" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L611" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M611" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="2">
+        <v>45198.78473320602</v>
+      </c>
+      <c r="B612" s="3" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C612" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D612" s="3">
+        <v>2.0232538E7</v>
+      </c>
+      <c r="E612" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="F612" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G612" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="H612" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I612" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J612" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K612" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L612" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N612" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="2">
+        <v>45198.79384945602</v>
+      </c>
+      <c r="B613" s="3" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C613" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D613" s="3">
+        <v>2.0205265E7</v>
+      </c>
+      <c r="E613" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="F613" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G613" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H613" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I613" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J613" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K613" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L613" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M613" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="2">
+        <v>45198.84991228009</v>
+      </c>
+      <c r="B614" s="3" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C614" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D614" s="3">
+        <v>2.0212608E7</v>
+      </c>
+      <c r="E614" s="3" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F614" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G614" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H614" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I614" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J614" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K614" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L614" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N614" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="2">
+        <v>45198.89660287037</v>
+      </c>
+      <c r="B615" s="3" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C615" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D615" s="3">
+        <v>2.0235155E7</v>
+      </c>
+      <c r="E615" s="3" t="s">
+        <v>1361</v>
+      </c>
+      <c r="F615" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G615" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H615" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I615" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J615" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K615" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L615" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N615" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="2">
+        <v>45198.9102149074</v>
+      </c>
+      <c r="B616" s="3" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C616" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D616" s="3">
+        <v>2.0233932E7</v>
+      </c>
+      <c r="E616" s="3" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F616" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G616" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="H616" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I616" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J616" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K616" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L616" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M616" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="2">
+        <v>45198.94355747685</v>
+      </c>
+      <c r="B617" s="3" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C617" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D617" s="3">
+        <v>2.0232935E7</v>
+      </c>
+      <c r="E617" s="3" t="s">
+        <v>1365</v>
+      </c>
+      <c r="F617" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G617" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="H617" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I617" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J617" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K617" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L617" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M617" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="2">
+        <v>45199.00259055555</v>
+      </c>
+      <c r="B618" s="3" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C618" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D618" s="3">
+        <v>2.0232638E7</v>
+      </c>
+      <c r="E618" s="3" t="s">
+        <v>1367</v>
+      </c>
+      <c r="F618" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G618" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H618" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I618" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J618" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K618" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L618" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N618" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="2">
+        <v>45199.01635740741</v>
+      </c>
+      <c r="B619" s="3" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C619" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D619" s="3">
+        <v>2.0236267E7</v>
+      </c>
+      <c r="E619" s="3" t="s">
+        <v>1369</v>
+      </c>
+      <c r="F619" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G619" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H619" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I619" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J619" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K619" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L619" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M619" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="2">
+        <v>45199.04371319445</v>
+      </c>
+      <c r="B620" s="3" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C620" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D620" s="3">
+        <v>2.0233644E7</v>
+      </c>
+      <c r="E620" s="3" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F620" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G620" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H620" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I620" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J620" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K620" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L620" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N620" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="2">
+        <v>45199.05104918982</v>
+      </c>
+      <c r="B621" s="3" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C621" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D621" s="3">
+        <v>2.0232753E7</v>
+      </c>
+      <c r="E621" s="3" t="s">
+        <v>1373</v>
+      </c>
+      <c r="F621" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G621" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="H621" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I621" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J621" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K621" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L621" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N621" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="2">
+        <v>45199.08616329861</v>
+      </c>
+      <c r="B622" s="3" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C622" s="3" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D622" s="3">
+        <v>2.0233244E7</v>
+      </c>
+      <c r="E622" s="3" t="s">
+        <v>1376</v>
+      </c>
+      <c r="F622" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G622" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H622" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I622" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J622" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K622" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L622" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N622" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="2">
+        <v>45199.09632408565</v>
+      </c>
+      <c r="B623" s="3" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C623" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D623" s="3">
+        <v>2.0235274E7</v>
+      </c>
+      <c r="E623" s="3" t="s">
+        <v>1378</v>
+      </c>
+      <c r="F623" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G623" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="H623" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I623" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J623" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K623" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L623" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M623" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="2">
+        <v>45199.11064189815</v>
+      </c>
+      <c r="B624" s="3" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C624" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D624" s="3">
+        <v>2.0233044E7</v>
+      </c>
+      <c r="E624" s="3" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F624" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G624" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H624" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I624" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J624" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K624" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L624" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N624" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="2">
+        <v>45199.318596689816</v>
+      </c>
+      <c r="B625" s="3" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C625" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D625" s="3">
+        <v>2.0207091E7</v>
+      </c>
+      <c r="E625" s="3" t="s">
+        <v>1381</v>
+      </c>
+      <c r="F625" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G625" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H625" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I625" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J625" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K625" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L625" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N625" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="2">
+        <v>45199.402593252315</v>
+      </c>
+      <c r="B626" s="3" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C626" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D626" s="3">
+        <v>2.0226111E7</v>
+      </c>
+      <c r="E626" s="3" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F626" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G626" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H626" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I626" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J626" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K626" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L626" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N626" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="2">
+        <v>45199.40724783565</v>
+      </c>
+      <c r="B627" s="3" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C627" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D627" s="3">
+        <v>2.0235119E7</v>
+      </c>
+      <c r="E627" s="3" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F627" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G627" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H627" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I627" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J627" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K627" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L627" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N627" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="2">
+        <v>45199.558246875</v>
+      </c>
+      <c r="B628" s="3" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C628" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D628" s="3">
+        <v>2.0233728E7</v>
+      </c>
+      <c r="E628" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="F628" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G628" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H628" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I628" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J628" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K628" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L628" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N628" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="2">
+        <v>45199.56866164352</v>
+      </c>
+      <c r="B629" s="3" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C629" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D629" s="3">
+        <v>2.0226623E7</v>
+      </c>
+      <c r="E629" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F629" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G629" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H629" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I629" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J629" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K629" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L629" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M629" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="2">
+        <v>45199.59448741898</v>
+      </c>
+      <c r="B630" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C630" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D630" s="3">
+        <v>2.0232342E7</v>
+      </c>
+      <c r="E630" s="3" t="s">
+        <v>1389</v>
+      </c>
+      <c r="F630" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G630" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H630" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I630" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J630" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K630" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L630" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M630" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="2">
+        <v>45199.6345775</v>
+      </c>
+      <c r="B631" s="3" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C631" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D631" s="3">
+        <v>2.0233903E7</v>
+      </c>
+      <c r="E631" s="3" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F631" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G631" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="H631" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I631" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J631" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K631" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L631" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M631" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="2">
+        <v>45199.67071979167</v>
+      </c>
+      <c r="B632" s="3" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C632" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D632" s="3">
+        <v>2.0233964E7</v>
+      </c>
+      <c r="E632" s="3" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F632" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G632" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H632" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I632" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J632" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K632" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L632" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M632" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="2">
+        <v>45199.674403530094</v>
+      </c>
+      <c r="B633" s="3" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C633" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D633" s="3">
+        <v>2.0232302E7</v>
+      </c>
+      <c r="E633" s="3" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F633" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G633" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="H633" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I633" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J633" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K633" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L633" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M633" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="2">
+        <v>45199.68322309028</v>
+      </c>
+      <c r="B634" s="3" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C634" s="3" t="s">
+        <v>973</v>
+      </c>
+      <c r="D634" s="3">
+        <v>2.0201083E7</v>
+      </c>
+      <c r="E634" s="3" t="s">
+        <v>1397</v>
+      </c>
+      <c r="F634" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G634" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H634" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I634" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J634" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K634" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L634" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M634" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="2">
+        <v>45199.70269052083</v>
+      </c>
+      <c r="B635" s="3" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C635" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="D635" s="3">
+        <v>2.0181605E7</v>
+      </c>
+      <c r="E635" s="3" t="s">
+        <v>1399</v>
+      </c>
+      <c r="F635" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G635" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H635" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I635" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J635" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K635" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L635" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M635" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="2">
+        <v>45199.74257105324</v>
+      </c>
+      <c r="B636" s="3" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C636" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D636" s="3">
+        <v>2.022295E7</v>
+      </c>
+      <c r="E636" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="F636" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G636" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H636" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I636" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J636" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K636" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L636" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M636" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="2">
+        <v>45199.817102534726</v>
+      </c>
+      <c r="B637" s="3" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C637" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D637" s="3">
+        <v>2.0235161E7</v>
+      </c>
+      <c r="E637" s="3" t="s">
+        <v>1403</v>
+      </c>
+      <c r="F637" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G637" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H637" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I637" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J637" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K637" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L637" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N637" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="2">
+        <v>45199.8213465625</v>
+      </c>
+      <c r="B638" s="3" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C638" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D638" s="3">
+        <v>2.0217081E7</v>
+      </c>
+      <c r="E638" s="3" t="s">
+        <v>1405</v>
+      </c>
+      <c r="F638" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G638" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="H638" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I638" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J638" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K638" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L638" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M638" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="2">
+        <v>45199.82293318287</v>
+      </c>
+      <c r="B639" s="3" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C639" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D639" s="3">
+        <v>2.0216289E7</v>
+      </c>
+      <c r="E639" s="3" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F639" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G639" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="H639" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I639" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J639" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K639" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L639" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N639" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="2">
+        <v>45199.82564130787</v>
+      </c>
+      <c r="B640" s="3" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C640" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D640" s="3">
+        <v>2.018382E7</v>
+      </c>
+      <c r="E640" s="3" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F640" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G640" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H640" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I640" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J640" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K640" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L640" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M640" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="2">
+        <v>45199.83584438657</v>
+      </c>
+      <c r="B641" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C641" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D641" s="3">
+        <v>2.0232364E7</v>
+      </c>
+      <c r="E641" s="3" t="s">
+        <v>1411</v>
+      </c>
+      <c r="F641" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G641" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H641" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I641" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J641" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K641" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L641" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M641" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="2">
+        <v>45199.85412659722</v>
+      </c>
+      <c r="B642" s="3" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C642" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D642" s="3">
+        <v>2.0234151E7</v>
+      </c>
+      <c r="E642" s="3" t="s">
+        <v>1413</v>
+      </c>
+      <c r="F642" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G642" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="H642" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I642" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J642" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K642" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L642" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M642" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="2">
+        <v>45199.85441050926</v>
+      </c>
+      <c r="B643" s="3" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C643" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D643" s="3">
+        <v>2.0232748E7</v>
+      </c>
+      <c r="E643" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="F643" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G643" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H643" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I643" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J643" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K643" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L643" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M643" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="2">
+        <v>45199.86606354167</v>
+      </c>
+      <c r="B644" s="3" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C644" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D644" s="3">
+        <v>2.0236269E7</v>
+      </c>
+      <c r="E644" s="3" t="s">
+        <v>1417</v>
+      </c>
+      <c r="F644" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G644" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H644" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I644" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J644" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K644" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L644" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N644" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="2">
+        <v>45199.87444321759</v>
+      </c>
+      <c r="B645" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C645" s="3" t="s">
+        <v>973</v>
+      </c>
+      <c r="D645" s="3">
+        <v>2.0221043E7</v>
+      </c>
+      <c r="E645" s="3" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F645" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G645" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H645" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I645" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J645" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K645" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L645" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N645" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="2">
+        <v>45199.878033078705</v>
+      </c>
+      <c r="B646" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C646" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="D646" s="3">
+        <v>2.0191002E7</v>
+      </c>
+      <c r="E646" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="F646" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G646" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H646" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I646" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J646" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K646" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L646" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N646" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="2">
+        <v>45199.88681574074</v>
+      </c>
+      <c r="B647" s="3" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C647" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D647" s="3">
+        <v>2.0232537E7</v>
+      </c>
+      <c r="E647" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F647" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G647" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H647" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I647" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J647" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K647" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L647" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M647" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="2">
+        <v>45199.89521869213</v>
+      </c>
+      <c r="B648" s="3" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C648" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D648" s="3">
+        <v>2.0222728E7</v>
+      </c>
+      <c r="E648" s="3" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F648" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G648" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H648" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I648" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J648" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K648" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L648" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M648" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="2">
+        <v>45199.90100543981</v>
+      </c>
+      <c r="B649" s="3" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C649" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D649" s="3">
+        <v>2.0233914E7</v>
+      </c>
+      <c r="E649" s="3" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F649" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G649" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="H649" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I649" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J649" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K649" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L649" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N649" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="2">
+        <v>45199.903428958336</v>
+      </c>
+      <c r="B650" s="3" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C650" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D650" s="3">
+        <v>2.0232138E7</v>
+      </c>
+      <c r="E650" s="3" t="s">
+        <v>1429</v>
+      </c>
+      <c r="F650" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G650" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H650" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I650" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J650" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K650" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L650" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M650" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="2">
+        <v>45199.91834408564</v>
+      </c>
+      <c r="B651" s="3" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C651" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D651" s="3">
+        <v>2.0232827E7</v>
+      </c>
+      <c r="E651" s="3" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F651" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G651" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H651" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I651" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J651" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K651" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L651" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N651" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="2">
+        <v>45199.9278525</v>
+      </c>
+      <c r="B652" s="3" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C652" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D652" s="3">
+        <v>2.0232357E7</v>
+      </c>
+      <c r="E652" s="3" t="s">
+        <v>1433</v>
+      </c>
+      <c r="F652" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G652" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H652" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I652" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J652" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K652" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L652" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N652" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="2">
+        <v>45199.93311082176</v>
+      </c>
+      <c r="B653" s="3" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C653" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D653" s="3">
+        <v>2.0232102E7</v>
+      </c>
+      <c r="E653" s="3" t="s">
+        <v>1435</v>
+      </c>
+      <c r="F653" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G653" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="H653" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I653" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J653" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K653" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L653" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M653" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="2">
+        <v>45199.94437505787</v>
+      </c>
+      <c r="B654" s="3" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C654" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D654" s="3">
+        <v>2.0203842E7</v>
+      </c>
+      <c r="E654" s="3" t="s">
+        <v>1437</v>
+      </c>
+      <c r="F654" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G654" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H654" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I654" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J654" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K654" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L654" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N654" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="2">
+        <v>45199.94470494213</v>
+      </c>
+      <c r="B655" s="3" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C655" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D655" s="3">
+        <v>2.0217071E7</v>
+      </c>
+      <c r="E655" s="3" t="s">
+        <v>1439</v>
+      </c>
+      <c r="F655" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G655" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H655" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I655" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J655" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K655" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L655" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N655" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="2">
+        <v>45199.97102084491</v>
+      </c>
+      <c r="B656" s="3" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C656" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D656" s="3">
+        <v>2.0226129E7</v>
+      </c>
+      <c r="E656" s="3" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F656" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G656" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H656" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I656" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J656" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K656" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L656" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N656" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="2">
+        <v>45199.97143039352</v>
+      </c>
+      <c r="B657" s="3" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C657" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D657" s="3">
+        <v>2.0222432E7</v>
+      </c>
+      <c r="E657" s="3" t="s">
+        <v>1443</v>
+      </c>
+      <c r="F657" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G657" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H657" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I657" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J657" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K657" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L657" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M657" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="2">
+        <v>45199.97517614583</v>
+      </c>
+      <c r="B658" s="3" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C658" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D658" s="3">
+        <v>2.0233638E7</v>
+      </c>
+      <c r="E658" s="3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="F658" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G658" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H658" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I658" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J658" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K658" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L658" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N658" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="2">
+        <v>45199.98094439815</v>
+      </c>
+      <c r="B659" s="3" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C659" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D659" s="3">
+        <v>2.0212708E7</v>
+      </c>
+      <c r="E659" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F659" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G659" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H659" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I659" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J659" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K659" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L659" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M659" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="2">
+        <v>45199.990927349536</v>
+      </c>
+      <c r="B660" s="3" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C660" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D660" s="3">
+        <v>2.0202751E7</v>
+      </c>
+      <c r="E660" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="F660" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G660" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H660" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I660" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J660" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K660" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L660" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N660" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="2">
+        <v>45199.99495208333</v>
+      </c>
+      <c r="B661" s="3" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C661" s="3" t="s">
+        <v>953</v>
+      </c>
+      <c r="D661" s="3">
+        <v>2.0233303E7</v>
+      </c>
+      <c r="E661" s="3" t="s">
+        <v>1450</v>
+      </c>
+      <c r="F661" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G661" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="H661" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I661" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J661" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K661" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L661" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N661" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="2">
+        <v>45200.00484546296</v>
+      </c>
+      <c r="B662" s="3" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C662" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D662" s="3">
+        <v>2.0231518E7</v>
+      </c>
+      <c r="E662" s="3" t="s">
+        <v>1452</v>
+      </c>
+      <c r="F662" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G662" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H662" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I662" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J662" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K662" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L662" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M662" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="2">
+        <v>45200.00486165509</v>
+      </c>
+      <c r="B663" s="3" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C663" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D663" s="3">
+        <v>2.0233233E7</v>
+      </c>
+      <c r="E663" s="3" t="s">
+        <v>1454</v>
+      </c>
+      <c r="F663" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G663" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="H663" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I663" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J663" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K663" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L663" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N663" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="2">
+        <v>45200.01219083334</v>
+      </c>
+      <c r="B664" s="3" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C664" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D664" s="3">
+        <v>2.0236419E7</v>
+      </c>
+      <c r="E664" s="3" t="s">
+        <v>1456</v>
+      </c>
+      <c r="F664" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G664" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="H664" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I664" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J664" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K664" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L664" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N664" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="2">
+        <v>45200.046006585646</v>
+      </c>
+      <c r="B665" s="3" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C665" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D665" s="3">
+        <v>2.023676E7</v>
+      </c>
+      <c r="E665" s="3" t="s">
+        <v>1458</v>
+      </c>
+      <c r="F665" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G665" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H665" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I665" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J665" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K665" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L665" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M665" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="2">
+        <v>45200.057004409726</v>
+      </c>
+      <c r="B666" s="3" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C666" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D666" s="3">
+        <v>2.0226419E7</v>
+      </c>
+      <c r="E666" s="3" t="s">
+        <v>1460</v>
+      </c>
+      <c r="F666" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G666" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H666" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I666" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J666" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K666" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L666" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M666" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="2">
+        <v>45200.06786821759</v>
+      </c>
+      <c r="B667" s="3" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C667" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D667" s="3">
+        <v>2.0233934E7</v>
+      </c>
+      <c r="E667" s="3" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F667" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G667" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="H667" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I667" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J667" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K667" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L667" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N667" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="2">
+        <v>45200.07826241898</v>
+      </c>
+      <c r="B668" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C668" s="3" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D668" s="3">
+        <v>2.0163118E7</v>
+      </c>
+      <c r="E668" s="3" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F668" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G668" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H668" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I668" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J668" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K668" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L668" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M668" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="2">
+        <v>45200.10554099537</v>
+      </c>
+      <c r="B669" s="3" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C669" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="D669" s="3">
+        <v>2.0222561E7</v>
+      </c>
+      <c r="E669" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="F669" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G669" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="H669" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I669" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J669" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K669" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L669" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M669" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="2">
+        <v>45200.348757685184</v>
+      </c>
+      <c r="B670" s="3" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C670" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D670" s="3">
+        <v>2.0232114E7</v>
+      </c>
+      <c r="E670" s="3" t="s">
+        <v>1469</v>
+      </c>
+      <c r="F670" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G670" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H670" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I670" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J670" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K670" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L670" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M670" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="2">
+        <v>45200.349475243056</v>
+      </c>
+      <c r="B671" s="3" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C671" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D671" s="3">
+        <v>2.0207035E7</v>
+      </c>
+      <c r="E671" s="3" t="s">
+        <v>1471</v>
+      </c>
+      <c r="F671" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G671" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H671" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I671" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J671" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K671" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L671" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N671" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="2">
+        <v>45200.354013460645</v>
+      </c>
+      <c r="B672" s="3" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C672" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D672" s="3">
+        <v>2.0235101E7</v>
+      </c>
+      <c r="E672" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="F672" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G672" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H672" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I672" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J672" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K672" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L672" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N672" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="2">
+        <v>45200.368824386576</v>
+      </c>
+      <c r="B673" s="3" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C673" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D673" s="3">
+        <v>2.023361E7</v>
+      </c>
+      <c r="E673" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="F673" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G673" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="H673" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I673" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J673" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K673" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L673" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N673" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="2">
+        <v>45200.40433798611</v>
+      </c>
+      <c r="B674" s="3" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C674" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D674" s="3">
+        <v>2.0235122E7</v>
+      </c>
+      <c r="E674" s="3" t="s">
+        <v>1477</v>
+      </c>
+      <c r="F674" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G674" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H674" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I674" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J674" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K674" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L674" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M674" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="2">
+        <v>45200.43346893518</v>
+      </c>
+      <c r="B675" s="3" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C675" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D675" s="3">
+        <v>2.0207064E7</v>
+      </c>
+      <c r="E675" s="3" t="s">
+        <v>1479</v>
+      </c>
+      <c r="F675" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G675" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H675" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I675" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J675" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K675" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L675" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M675" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="2">
+        <v>45200.44135538195</v>
+      </c>
+      <c r="B676" s="3" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C676" s="3" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D676" s="3">
+        <v>2.0233732E7</v>
+      </c>
+      <c r="E676" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="F676" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G676" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="H676" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I676" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J676" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K676" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L676" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N676" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="2">
+        <v>45200.446990358796</v>
+      </c>
+      <c r="B677" s="3" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C677" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D677" s="3">
+        <v>2.0226178E7</v>
+      </c>
+      <c r="E677" s="3" t="s">
+        <v>1483</v>
+      </c>
+      <c r="F677" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G677" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H677" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I677" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J677" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K677" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L677" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N677" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="2">
+        <v>45200.45130716435</v>
+      </c>
+      <c r="B678" s="3" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C678" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D678" s="3">
+        <v>2.0232214E7</v>
+      </c>
+      <c r="E678" s="3" t="s">
+        <v>1485</v>
+      </c>
+      <c r="F678" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G678" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H678" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I678" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J678" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K678" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L678" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N678" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="2">
+        <v>45200.45330037037</v>
+      </c>
+      <c r="B679" s="3" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C679" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D679" s="3">
+        <v>2.0232339E7</v>
+      </c>
+      <c r="E679" s="3" t="s">
+        <v>1487</v>
+      </c>
+      <c r="F679" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G679" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="H679" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I679" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J679" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K679" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L679" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N679" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="2">
+        <v>45200.45555578703</v>
+      </c>
+      <c r="B680" s="3" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C680" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D680" s="3">
+        <v>2.0232328E7</v>
+      </c>
+      <c r="E680" s="3" t="s">
+        <v>1489</v>
+      </c>
+      <c r="F680" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G680" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="H680" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I680" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J680" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K680" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L680" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N680" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="2">
+        <v>45200.46561613426</v>
+      </c>
+      <c r="B681" s="3" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C681" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D681" s="3">
+        <v>2.0221026E7</v>
+      </c>
+      <c r="E681" s="3" t="s">
+        <v>1491</v>
+      </c>
+      <c r="F681" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G681" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H681" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I681" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J681" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K681" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L681" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N681" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="2">
+        <v>45200.48724137731</v>
+      </c>
+      <c r="B682" s="3" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C682" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D682" s="3">
+        <v>2.0233936E7</v>
+      </c>
+      <c r="E682" s="3" t="s">
+        <v>1493</v>
+      </c>
+      <c r="F682" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G682" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H682" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I682" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J682" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K682" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L682" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N682" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="2">
+        <v>45200.492801053246</v>
+      </c>
+      <c r="B683" s="3" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C683" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D683" s="3">
+        <v>2.019287E7</v>
+      </c>
+      <c r="E683" s="3" t="s">
+        <v>1495</v>
+      </c>
+      <c r="F683" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G683" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H683" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I683" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J683" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K683" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L683" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N683" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="2">
+        <v>45200.49531824074</v>
+      </c>
+      <c r="B684" s="3" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C684" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D684" s="3">
+        <v>2.0232947E7</v>
+      </c>
+      <c r="E684" s="3" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F684" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G684" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H684" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I684" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J684" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K684" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L684" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N684" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="2">
+        <v>45200.500700613426</v>
+      </c>
+      <c r="B685" s="3" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C685" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D685" s="3">
+        <v>2.0222853E7</v>
+      </c>
+      <c r="E685" s="3" t="s">
+        <v>1499</v>
+      </c>
+      <c r="F685" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G685" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H685" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I685" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J685" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K685" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L685" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N685" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="2">
+        <v>45200.52798960648</v>
+      </c>
+      <c r="B686" s="3" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C686" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D686" s="3">
+        <v>2.0236275E7</v>
+      </c>
+      <c r="E686" s="3" t="s">
+        <v>1501</v>
+      </c>
+      <c r="F686" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G686" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H686" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I686" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J686" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K686" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L686" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N686" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="2">
+        <v>45200.55439116898</v>
+      </c>
+      <c r="B687" s="3" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C687" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D687" s="3">
+        <v>2.0232902E7</v>
+      </c>
+      <c r="E687" s="3" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F687" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G687" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H687" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I687" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J687" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K687" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L687" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M687" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="2">
+        <v>45200.56497364583</v>
+      </c>
+      <c r="B688" s="3" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C688" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D688" s="3">
+        <v>2.0235193E7</v>
+      </c>
+      <c r="E688" s="3" t="s">
+        <v>1505</v>
+      </c>
+      <c r="F688" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G688" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H688" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I688" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J688" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K688" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L688" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M688" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="2">
+        <v>45200.57143428241</v>
+      </c>
+      <c r="B689" s="3" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C689" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D689" s="3">
+        <v>2.0236278E7</v>
+      </c>
+      <c r="E689" s="3" t="s">
+        <v>1507</v>
+      </c>
+      <c r="F689" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G689" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H689" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I689" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J689" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K689" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L689" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N689" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="2">
+        <v>45200.574357708334</v>
+      </c>
+      <c r="B690" s="3" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C690" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D690" s="3">
+        <v>2.0226647E7</v>
+      </c>
+      <c r="E690" s="3" t="s">
+        <v>1509</v>
+      </c>
+      <c r="F690" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G690" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H690" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I690" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J690" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K690" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L690" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M690" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="2">
+        <v>45200.57675061343</v>
+      </c>
+      <c r="B691" s="3" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C691" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D691" s="3">
+        <v>2.0235273E7</v>
+      </c>
+      <c r="E691" s="3" t="s">
+        <v>1511</v>
+      </c>
+      <c r="F691" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G691" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H691" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I691" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J691" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K691" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L691" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M691" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="2">
+        <v>45200.57816237268</v>
+      </c>
+      <c r="B692" s="3" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C692" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D692" s="3">
+        <v>2.0232523E7</v>
+      </c>
+      <c r="E692" s="3" t="s">
+        <v>1513</v>
+      </c>
+      <c r="F692" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G692" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H692" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I692" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J692" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K692" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L692" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N692" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="2">
+        <v>45200.5788559375</v>
+      </c>
+      <c r="B693" s="3" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C693" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D693" s="3">
+        <v>2.0202711E7</v>
+      </c>
+      <c r="E693" s="3" t="s">
+        <v>1515</v>
+      </c>
+      <c r="F693" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G693" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H693" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I693" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J693" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K693" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L693" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N693" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="2">
+        <v>45200.581117118054</v>
+      </c>
+      <c r="B694" s="3" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C694" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D694" s="3">
+        <v>2.0197115E7</v>
+      </c>
+      <c r="E694" s="3" t="s">
+        <v>1517</v>
+      </c>
+      <c r="F694" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G694" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="H694" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I694" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J694" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K694" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L694" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N694" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="2">
+        <v>45200.581660972224</v>
+      </c>
+      <c r="B695" s="3" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C695" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D695" s="3">
+        <v>2.0191508E7</v>
+      </c>
+      <c r="E695" s="3" t="s">
+        <v>1519</v>
+      </c>
+      <c r="F695" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G695" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H695" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I695" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J695" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K695" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L695" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M695" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="2">
+        <v>45200.58287233797</v>
+      </c>
+      <c r="B696" s="3" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C696" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D696" s="3">
+        <v>2.0193009E7</v>
+      </c>
+      <c r="E696" s="3" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F696" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G696" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H696" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I696" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J696" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K696" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L696" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M696" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="2">
+        <v>45200.58990344907</v>
+      </c>
+      <c r="B697" s="3" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C697" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D697" s="3">
+        <v>2.0192319E7</v>
+      </c>
+      <c r="E697" s="3" t="s">
+        <v>1523</v>
+      </c>
+      <c r="F697" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G697" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H697" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I697" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J697" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K697" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L697" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M697" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="2">
+        <v>45200.59047891204</v>
+      </c>
+      <c r="B698" s="3" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C698" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="D698" s="3">
+        <v>2.018258E7</v>
+      </c>
+      <c r="E698" s="3" t="s">
+        <v>1525</v>
+      </c>
+      <c r="F698" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G698" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H698" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I698" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J698" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K698" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L698" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N698" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="2">
+        <v>45200.59127134259</v>
+      </c>
+      <c r="B699" s="3" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C699" s="3" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D699" s="3">
+        <v>2.0203224E7</v>
+      </c>
+      <c r="E699" s="3" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F699" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G699" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H699" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I699" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J699" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K699" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L699" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M699" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="2">
+        <v>45200.593153379625</v>
+      </c>
+      <c r="B700" s="3" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C700" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D700" s="3">
+        <v>2.0223409E7</v>
+      </c>
+      <c r="E700" s="3" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F700" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G700" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H700" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I700" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J700" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K700" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L700" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N700" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="2">
+        <v>45200.595075833335</v>
+      </c>
+      <c r="B701" s="3" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C701" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D701" s="3">
+        <v>2.023519E7</v>
+      </c>
+      <c r="E701" s="3" t="s">
+        <v>1531</v>
+      </c>
+      <c r="F701" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G701" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="H701" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I701" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J701" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K701" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L701" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M701" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="2">
+        <v>45200.59590570602</v>
+      </c>
+      <c r="B702" s="3" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C702" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D702" s="3">
+        <v>2.0192902E7</v>
+      </c>
+      <c r="E702" s="3" t="s">
+        <v>1533</v>
+      </c>
+      <c r="F702" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G702" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H702" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I702" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J702" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K702" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L702" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M702" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="2">
+        <v>45200.603158425925</v>
+      </c>
+      <c r="B703" s="3" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C703" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D703" s="3">
+        <v>2.0222838E7</v>
+      </c>
+      <c r="E703" s="3" t="s">
+        <v>1535</v>
+      </c>
+      <c r="F703" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G703" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H703" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I703" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J703" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K703" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L703" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M703" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="2">
+        <v>45200.60542607639</v>
+      </c>
+      <c r="B704" s="3" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C704" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D704" s="3">
+        <v>2.0233844E7</v>
+      </c>
+      <c r="E704" s="3" t="s">
+        <v>1537</v>
+      </c>
+      <c r="F704" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G704" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H704" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I704" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J704" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K704" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L704" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M704" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="2">
+        <v>45200.60648127315</v>
+      </c>
+      <c r="B705" s="3" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C705" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D705" s="3">
+        <v>2.023303E7</v>
+      </c>
+      <c r="E705" s="3" t="s">
+        <v>1539</v>
+      </c>
+      <c r="F705" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G705" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H705" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I705" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J705" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K705" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L705" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M705" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="2">
+        <v>45200.61961583333</v>
+      </c>
+      <c r="B706" s="3" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C706" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D706" s="3">
+        <v>2.0233521E7</v>
+      </c>
+      <c r="E706" s="3" t="s">
+        <v>1541</v>
+      </c>
+      <c r="F706" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G706" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="H706" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I706" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J706" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K706" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L706" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N706" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="2">
+        <v>45200.621490439815</v>
+      </c>
+      <c r="B707" s="3" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C707" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D707" s="3">
+        <v>2.0232588E7</v>
+      </c>
+      <c r="E707" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="F707" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G707" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H707" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I707" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J707" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K707" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L707" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N707" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="2">
+        <v>45200.62447797453</v>
+      </c>
+      <c r="B708" s="3" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C708" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D708" s="3">
+        <v>2.0236764E7</v>
+      </c>
+      <c r="E708" s="3" t="s">
+        <v>1544</v>
+      </c>
+      <c r="F708" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G708" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H708" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I708" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J708" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K708" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L708" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N708" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="2">
+        <v>45200.62902350695</v>
+      </c>
+      <c r="B709" s="3" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C709" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D709" s="3">
+        <v>2.0236761E7</v>
+      </c>
+      <c r="E709" s="3" t="s">
+        <v>1546</v>
+      </c>
+      <c r="F709" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G709" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H709" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I709" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J709" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K709" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L709" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N709" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="2">
+        <v>45200.629139502315</v>
+      </c>
+      <c r="B710" s="3" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C710" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D710" s="3">
+        <v>2.017542E7</v>
+      </c>
+      <c r="E710" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="F710" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G710" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H710" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I710" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J710" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K710" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L710" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M710" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="2">
+        <v>45200.63475738426</v>
+      </c>
+      <c r="B711" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C711" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D711" s="3">
+        <v>2.0183319E7</v>
+      </c>
+      <c r="E711" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="F711" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G711" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H711" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I711" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J711" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K711" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L711" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N711" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="2">
+        <v>45200.635569502316</v>
+      </c>
+      <c r="B712" s="3" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C712" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D712" s="3">
+        <v>2.0236638E7</v>
+      </c>
+      <c r="E712" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="F712" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G712" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H712" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I712" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J712" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K712" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L712" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M712" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="2">
+        <v>45200.647343136574</v>
+      </c>
+      <c r="B713" s="3" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C713" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D713" s="3">
+        <v>2.0231217E7</v>
+      </c>
+      <c r="E713" s="3" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F713" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G713" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H713" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I713" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J713" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K713" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L713" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M713" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="2">
+        <v>45200.64876597222</v>
+      </c>
+      <c r="B714" s="3" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C714" s="3" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D714" s="3">
+        <v>2.0216618E7</v>
+      </c>
+      <c r="E714" s="3" t="s">
+        <v>1557</v>
+      </c>
+      <c r="F714" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G714" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="H714" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I714" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J714" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K714" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L714" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M714" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="2">
+        <v>45200.65558988426</v>
+      </c>
+      <c r="B715" s="3" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C715" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D715" s="3">
+        <v>2.0222804E7</v>
+      </c>
+      <c r="E715" s="3" t="s">
+        <v>1559</v>
+      </c>
+      <c r="F715" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G715" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H715" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I715" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J715" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K715" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L715" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M715" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="2">
+        <v>45200.66291266204</v>
+      </c>
+      <c r="B716" s="3" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C716" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D716" s="3">
+        <v>2.023108E7</v>
+      </c>
+      <c r="E716" s="3" t="s">
+        <v>1561</v>
+      </c>
+      <c r="F716" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G716" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H716" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I716" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J716" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K716" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L716" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M716" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="2">
+        <v>45200.66376045139</v>
+      </c>
+      <c r="B717" s="3" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C717" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D717" s="3">
+        <v>2.0233944E7</v>
+      </c>
+      <c r="E717" s="3" t="s">
+        <v>1563</v>
+      </c>
+      <c r="F717" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G717" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H717" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I717" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J717" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K717" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L717" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N717" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="2">
+        <v>45200.665058530096</v>
+      </c>
+      <c r="B718" s="3" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C718" s="3" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D718" s="3">
+        <v>2.0193244E7</v>
+      </c>
+      <c r="E718" s="3" t="s">
+        <v>1565</v>
+      </c>
+      <c r="F718" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G718" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H718" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I718" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J718" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K718" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L718" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M718" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="2">
+        <v>45200.666720381945</v>
+      </c>
+      <c r="B719" s="3" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C719" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D719" s="3">
+        <v>2.0231083E7</v>
+      </c>
+      <c r="E719" s="3" t="s">
+        <v>1567</v>
+      </c>
+      <c r="F719" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G719" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H719" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I719" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J719" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K719" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L719" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N719" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/R/data/quiz230918_tmp.xlsx
+++ b/R/data/quiz230918_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7193" uniqueCount="1568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7503" uniqueCount="1633">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -4715,6 +4715,201 @@
   </si>
   <si>
     <t>정수환</t>
+  </si>
+  <si>
+    <t>wlalsdlcjm4@naver.com</t>
+  </si>
+  <si>
+    <t>차지민</t>
+  </si>
+  <si>
+    <t>qwer030815@naver.com</t>
+  </si>
+  <si>
+    <t>정은진</t>
+  </si>
+  <si>
+    <t>duddms5818@naver.com</t>
+  </si>
+  <si>
+    <t>한영은</t>
+  </si>
+  <si>
+    <t>rudqh0501@gmail.com</t>
+  </si>
+  <si>
+    <t>이경보</t>
+  </si>
+  <si>
+    <t>lma240228@gmail.com</t>
+  </si>
+  <si>
+    <t>김재민</t>
+  </si>
+  <si>
+    <t>dorud030406@naver.com</t>
+  </si>
+  <si>
+    <t>이예경</t>
+  </si>
+  <si>
+    <t>limyoon0725@daum.net</t>
+  </si>
+  <si>
+    <t>임윤서</t>
+  </si>
+  <si>
+    <t>gahee021911@gmail.com</t>
+  </si>
+  <si>
+    <t>임가희</t>
+  </si>
+  <si>
+    <t>dungunfight9@gmail.com</t>
+  </si>
+  <si>
+    <t>유홍현</t>
+  </si>
+  <si>
+    <t>tjwls7140@naver.com</t>
+  </si>
+  <si>
+    <t>황서진</t>
+  </si>
+  <si>
+    <t>h20221203@hallym.glab.ac.kr</t>
+  </si>
+  <si>
+    <t>권민주</t>
+  </si>
+  <si>
+    <t>hyj4213@naver.com</t>
+  </si>
+  <si>
+    <t>함영준</t>
+  </si>
+  <si>
+    <t>jeh9599@gmail.com</t>
+  </si>
+  <si>
+    <t>소프트웨어</t>
+  </si>
+  <si>
+    <t>정은혁</t>
+  </si>
+  <si>
+    <t>wasabi0724@naver.com</t>
+  </si>
+  <si>
+    <t>홍지윤</t>
+  </si>
+  <si>
+    <t>chdcks7359@gmail.com</t>
+  </si>
+  <si>
+    <t>장총찬</t>
+  </si>
+  <si>
+    <t>pungnam04@gmail.com</t>
+  </si>
+  <si>
+    <t>이종민</t>
+  </si>
+  <si>
+    <t>wjdcofla24@naver.com</t>
+  </si>
+  <si>
+    <t>정채림</t>
+  </si>
+  <si>
+    <t>dosilver1107@naver.com</t>
+  </si>
+  <si>
+    <t>임도은</t>
+  </si>
+  <si>
+    <t>qwerty052799@gmail.com</t>
+  </si>
+  <si>
+    <t>박성현</t>
+  </si>
+  <si>
+    <t>tjdbs6201305@naver.com</t>
+  </si>
+  <si>
+    <t>송서윤</t>
+  </si>
+  <si>
+    <t>dbwjdrms21@naver.com</t>
+  </si>
+  <si>
+    <t>유정근</t>
+  </si>
+  <si>
+    <t>rudtjraudwls@naver.com</t>
+  </si>
+  <si>
+    <t>한경석</t>
+  </si>
+  <si>
+    <t>plzmxn@naver.com</t>
+  </si>
+  <si>
+    <t>현상희</t>
+  </si>
+  <si>
+    <t>sdw0820@gmail.com</t>
+  </si>
+  <si>
+    <t>성동휘</t>
+  </si>
+  <si>
+    <t>041030top@naver.com</t>
+  </si>
+  <si>
+    <t>최영국</t>
+  </si>
+  <si>
+    <t>codmsrjf@naver.com</t>
+  </si>
+  <si>
+    <t>콘텐츠 IT</t>
+  </si>
+  <si>
+    <t>정채은</t>
+  </si>
+  <si>
+    <t>20232327@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">사회복지학부 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">박소희 </t>
+  </si>
+  <si>
+    <t>sungyeon0803@gmail.com</t>
+  </si>
+  <si>
+    <t>최성연</t>
+  </si>
+  <si>
+    <t>cba05049@naver.com</t>
+  </si>
+  <si>
+    <t>박상우</t>
+  </si>
+  <si>
+    <t>aktnftk3520@naver.com</t>
+  </si>
+  <si>
+    <t>어수련</t>
+  </si>
+  <si>
+    <t>dlwlgy0001@naver.com</t>
+  </si>
+  <si>
+    <t>이지효</t>
   </si>
 </sst>
 </file>
@@ -34472,6 +34667,1277 @@
         <v>22</v>
       </c>
     </row>
+    <row r="720">
+      <c r="A720" s="2">
+        <v>45200.671034479165</v>
+      </c>
+      <c r="B720" s="3" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C720" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D720" s="3">
+        <v>2.0236296E7</v>
+      </c>
+      <c r="E720" s="3" t="s">
+        <v>1569</v>
+      </c>
+      <c r="F720" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G720" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H720" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I720" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J720" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K720" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L720" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N720" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="2">
+        <v>45200.676602175925</v>
+      </c>
+      <c r="B721" s="3" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C721" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D721" s="3">
+        <v>2.0223639E7</v>
+      </c>
+      <c r="E721" s="3" t="s">
+        <v>1571</v>
+      </c>
+      <c r="F721" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G721" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H721" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I721" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J721" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K721" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L721" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N721" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="2">
+        <v>45200.67752693287</v>
+      </c>
+      <c r="B722" s="3" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C722" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D722" s="3">
+        <v>2.0192638E7</v>
+      </c>
+      <c r="E722" s="3" t="s">
+        <v>1573</v>
+      </c>
+      <c r="F722" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G722" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H722" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I722" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J722" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K722" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L722" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M722" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="2">
+        <v>45200.67929005787</v>
+      </c>
+      <c r="B723" s="3" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C723" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D723" s="3">
+        <v>2.0233417E7</v>
+      </c>
+      <c r="E723" s="3" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F723" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G723" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H723" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I723" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J723" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K723" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L723" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M723" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="2">
+        <v>45200.68185594908</v>
+      </c>
+      <c r="B724" s="3" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C724" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D724" s="3">
+        <v>2.0236608E7</v>
+      </c>
+      <c r="E724" s="3" t="s">
+        <v>1577</v>
+      </c>
+      <c r="F724" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G724" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H724" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I724" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J724" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K724" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L724" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M724" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="2">
+        <v>45200.682556678235</v>
+      </c>
+      <c r="B725" s="3" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C725" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D725" s="3">
+        <v>2.0222559E7</v>
+      </c>
+      <c r="E725" s="3" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F725" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G725" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H725" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I725" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J725" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K725" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L725" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N725" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="2">
+        <v>45200.68288702546</v>
+      </c>
+      <c r="B726" s="3" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C726" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D726" s="3">
+        <v>2.0222347E7</v>
+      </c>
+      <c r="E726" s="3" t="s">
+        <v>1581</v>
+      </c>
+      <c r="F726" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G726" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H726" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I726" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J726" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K726" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L726" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M726" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="2">
+        <v>45200.68478565972</v>
+      </c>
+      <c r="B727" s="3" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C727" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D727" s="3">
+        <v>2.0233023E7</v>
+      </c>
+      <c r="E727" s="3" t="s">
+        <v>1583</v>
+      </c>
+      <c r="F727" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G727" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H727" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I727" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J727" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K727" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L727" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N727" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="2">
+        <v>45200.68725362269</v>
+      </c>
+      <c r="B728" s="3" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C728" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D728" s="3">
+        <v>2.0222986E7</v>
+      </c>
+      <c r="E728" s="3" t="s">
+        <v>1585</v>
+      </c>
+      <c r="F728" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G728" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H728" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I728" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J728" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K728" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L728" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M728" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="2">
+        <v>45200.68982090278</v>
+      </c>
+      <c r="B729" s="3" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C729" s="3" t="s">
+        <v>953</v>
+      </c>
+      <c r="D729" s="3">
+        <v>2.0233353E7</v>
+      </c>
+      <c r="E729" s="3" t="s">
+        <v>1587</v>
+      </c>
+      <c r="F729" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G729" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H729" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I729" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J729" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K729" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L729" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M729" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="2">
+        <v>45200.691276516205</v>
+      </c>
+      <c r="B730" s="3" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C730" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D730" s="3">
+        <v>2.0221203E7</v>
+      </c>
+      <c r="E730" s="3" t="s">
+        <v>1589</v>
+      </c>
+      <c r="F730" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G730" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H730" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I730" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J730" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K730" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L730" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M730" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="2">
+        <v>45200.692609895836</v>
+      </c>
+      <c r="B731" s="3" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C731" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D731" s="3">
+        <v>2.023259E7</v>
+      </c>
+      <c r="E731" s="3" t="s">
+        <v>1591</v>
+      </c>
+      <c r="F731" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G731" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="H731" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I731" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J731" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K731" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L731" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M731" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="2">
+        <v>45200.69353521991</v>
+      </c>
+      <c r="B732" s="3" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C732" s="3" t="s">
+        <v>1593</v>
+      </c>
+      <c r="D732" s="3">
+        <v>2.0235256E7</v>
+      </c>
+      <c r="E732" s="3" t="s">
+        <v>1594</v>
+      </c>
+      <c r="F732" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G732" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="H732" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I732" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J732" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K732" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L732" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M732" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="2">
+        <v>45200.69612866898</v>
+      </c>
+      <c r="B733" s="3" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C733" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D733" s="3">
+        <v>2.0236645E7</v>
+      </c>
+      <c r="E733" s="3" t="s">
+        <v>1596</v>
+      </c>
+      <c r="F733" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G733" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H733" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I733" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J733" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K733" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L733" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M733" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="2">
+        <v>45200.69644321759</v>
+      </c>
+      <c r="B734" s="3" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C734" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D734" s="3">
+        <v>2.0233027E7</v>
+      </c>
+      <c r="E734" s="3" t="s">
+        <v>1598</v>
+      </c>
+      <c r="F734" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G734" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H734" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I734" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J734" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K734" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L734" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N734" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="2">
+        <v>45200.69692814814</v>
+      </c>
+      <c r="B735" s="3" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C735" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D735" s="3">
+        <v>2.0235242E7</v>
+      </c>
+      <c r="E735" s="3" t="s">
+        <v>1600</v>
+      </c>
+      <c r="F735" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G735" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H735" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I735" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J735" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K735" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L735" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N735" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="2">
+        <v>45200.71004925926</v>
+      </c>
+      <c r="B736" s="3" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C736" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D736" s="3">
+        <v>2.0211726E7</v>
+      </c>
+      <c r="E736" s="3" t="s">
+        <v>1602</v>
+      </c>
+      <c r="F736" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G736" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="H736" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I736" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J736" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K736" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L736" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N736" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="2">
+        <v>45200.715234675925</v>
+      </c>
+      <c r="B737" s="3" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C737" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D737" s="3">
+        <v>2.0212233E7</v>
+      </c>
+      <c r="E737" s="3" t="s">
+        <v>1604</v>
+      </c>
+      <c r="F737" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G737" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="H737" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I737" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J737" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K737" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L737" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M737" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="2">
+        <v>45200.715887847226</v>
+      </c>
+      <c r="B738" s="3" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C738" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D738" s="3">
+        <v>2.0236722E7</v>
+      </c>
+      <c r="E738" s="3" t="s">
+        <v>1606</v>
+      </c>
+      <c r="F738" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G738" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="H738" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I738" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J738" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K738" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L738" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N738" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="2">
+        <v>45200.717868645836</v>
+      </c>
+      <c r="B739" s="3" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C739" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D739" s="3">
+        <v>2.0232545E7</v>
+      </c>
+      <c r="E739" s="3" t="s">
+        <v>1608</v>
+      </c>
+      <c r="F739" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G739" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H739" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I739" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J739" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K739" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L739" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M739" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="2">
+        <v>45200.71845825232</v>
+      </c>
+      <c r="B740" s="3" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C740" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D740" s="3">
+        <v>2.0183829E7</v>
+      </c>
+      <c r="E740" s="3" t="s">
+        <v>1610</v>
+      </c>
+      <c r="F740" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G740" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H740" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I740" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J740" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K740" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L740" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N740" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="2">
+        <v>45200.72100321759</v>
+      </c>
+      <c r="B741" s="3" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C741" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D741" s="3">
+        <v>2.0236302E7</v>
+      </c>
+      <c r="E741" s="3" t="s">
+        <v>1612</v>
+      </c>
+      <c r="F741" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G741" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="H741" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I741" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J741" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K741" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L741" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N741" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="2">
+        <v>45200.72329980324</v>
+      </c>
+      <c r="B742" s="3" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C742" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D742" s="3">
+        <v>2.0232642E7</v>
+      </c>
+      <c r="E742" s="3" t="s">
+        <v>1614</v>
+      </c>
+      <c r="F742" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G742" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H742" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I742" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J742" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K742" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L742" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N742" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="2">
+        <v>45200.72627798611</v>
+      </c>
+      <c r="B743" s="3" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C743" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D743" s="3">
+        <v>2.0233819E7</v>
+      </c>
+      <c r="E743" s="3" t="s">
+        <v>1616</v>
+      </c>
+      <c r="F743" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G743" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H743" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I743" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J743" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K743" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L743" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M743" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="2">
+        <v>45200.72919329861</v>
+      </c>
+      <c r="B744" s="3" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C744" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="D744" s="3">
+        <v>2.0233257E7</v>
+      </c>
+      <c r="E744" s="3" t="s">
+        <v>1618</v>
+      </c>
+      <c r="F744" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G744" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H744" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I744" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J744" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K744" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L744" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N744" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="2">
+        <v>45200.732332534724</v>
+      </c>
+      <c r="B745" s="3" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C745" s="3" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D745" s="3">
+        <v>2.0205253E7</v>
+      </c>
+      <c r="E745" s="3" t="s">
+        <v>1621</v>
+      </c>
+      <c r="F745" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G745" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H745" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I745" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J745" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K745" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L745" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N745" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="2">
+        <v>45200.732799375</v>
+      </c>
+      <c r="B746" s="3" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C746" s="3" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D746" s="3">
+        <v>2.0232327E7</v>
+      </c>
+      <c r="E746" s="3" t="s">
+        <v>1624</v>
+      </c>
+      <c r="F746" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G746" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H746" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I746" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J746" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K746" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L746" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M746" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="2">
+        <v>45200.736784733796</v>
+      </c>
+      <c r="B747" s="3" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C747" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D747" s="3">
+        <v>2.0232437E7</v>
+      </c>
+      <c r="E747" s="3" t="s">
+        <v>1626</v>
+      </c>
+      <c r="F747" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G747" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H747" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I747" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J747" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K747" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L747" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N747" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="2">
+        <v>45200.751256550924</v>
+      </c>
+      <c r="B748" s="3" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C748" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D748" s="3">
+        <v>2.017272E7</v>
+      </c>
+      <c r="E748" s="3" t="s">
+        <v>1628</v>
+      </c>
+      <c r="F748" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G748" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H748" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I748" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J748" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K748" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L748" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M748" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="2">
+        <v>45200.76741747685</v>
+      </c>
+      <c r="B749" s="3" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C749" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D749" s="3">
+        <v>2.0236628E7</v>
+      </c>
+      <c r="E749" s="3" t="s">
+        <v>1630</v>
+      </c>
+      <c r="F749" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G749" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H749" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I749" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J749" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K749" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L749" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M749" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="2">
+        <v>45200.76876439815</v>
+      </c>
+      <c r="B750" s="3" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C750" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D750" s="3">
+        <v>2.0203024E7</v>
+      </c>
+      <c r="E750" s="3" t="s">
+        <v>1632</v>
+      </c>
+      <c r="F750" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G750" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H750" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I750" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J750" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K750" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L750" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N750" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/R/data/quiz230918_tmp.xlsx
+++ b/R/data/quiz230918_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7503" uniqueCount="1633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8063" uniqueCount="1742">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -4910,6 +4910,333 @@
   </si>
   <si>
     <t>이지효</t>
+  </si>
+  <si>
+    <t>dlwldms926@naver.com</t>
+  </si>
+  <si>
+    <t>이지은</t>
+  </si>
+  <si>
+    <t>thsdlstn99@naver.com</t>
+  </si>
+  <si>
+    <t>이인수</t>
+  </si>
+  <si>
+    <t>smy05036@naver.com</t>
+  </si>
+  <si>
+    <t>zuu3210@gmail.com</t>
+  </si>
+  <si>
+    <t>이수원</t>
+  </si>
+  <si>
+    <t>jangyc3972@gmail.com</t>
+  </si>
+  <si>
+    <t>장윤채</t>
+  </si>
+  <si>
+    <t>gawon9707@gmail.com</t>
+  </si>
+  <si>
+    <t>이가원</t>
+  </si>
+  <si>
+    <t>parkwj2004@gmail.com</t>
+  </si>
+  <si>
+    <t>박원준</t>
+  </si>
+  <si>
+    <t>ahn12025759@gmail.com</t>
+  </si>
+  <si>
+    <t>안채현</t>
+  </si>
+  <si>
+    <t>jjyyjj5463@gmail.com</t>
+  </si>
+  <si>
+    <t>정예진</t>
+  </si>
+  <si>
+    <t>namyh995@gmail.com</t>
+  </si>
+  <si>
+    <t>남윤혁</t>
+  </si>
+  <si>
+    <t>00kimdayeon@naver.com</t>
+  </si>
+  <si>
+    <t>김다연</t>
+  </si>
+  <si>
+    <t>yusoyun03@gmail.com</t>
+  </si>
+  <si>
+    <t>유소연</t>
+  </si>
+  <si>
+    <t>dkdud4750@naver.com</t>
+  </si>
+  <si>
+    <t>양아영</t>
+  </si>
+  <si>
+    <t>j1204yh@naver.com</t>
+  </si>
+  <si>
+    <t>정영호</t>
+  </si>
+  <si>
+    <t>kimuijin33@gmail.com</t>
+  </si>
+  <si>
+    <t>인공지능융합학과</t>
+  </si>
+  <si>
+    <t>김의진</t>
+  </si>
+  <si>
+    <t>rio040701@naver.com</t>
+  </si>
+  <si>
+    <t>홍은혜</t>
+  </si>
+  <si>
+    <t>knrgirl1223@gmail.com</t>
+  </si>
+  <si>
+    <t>김나래</t>
+  </si>
+  <si>
+    <t>duaalstj9429@naver.com</t>
+  </si>
+  <si>
+    <t>염민서</t>
+  </si>
+  <si>
+    <t>limjaewoo0611@naver.com</t>
+  </si>
+  <si>
+    <t>gjska1020@naver.com</t>
+  </si>
+  <si>
+    <t>허남훈</t>
+  </si>
+  <si>
+    <t>qkrqhdtn3@gmail.com</t>
+  </si>
+  <si>
+    <t>박봉수</t>
+  </si>
+  <si>
+    <t>seizekim@naver.com</t>
+  </si>
+  <si>
+    <t>김종학</t>
+  </si>
+  <si>
+    <t>xortl0522@naver.com</t>
+  </si>
+  <si>
+    <t>김택민</t>
+  </si>
+  <si>
+    <t>bldrlsld@gmail.com</t>
+  </si>
+  <si>
+    <t>김규빈</t>
+  </si>
+  <si>
+    <t>jsbaek16@gmail.com</t>
+  </si>
+  <si>
+    <t>김하선</t>
+  </si>
+  <si>
+    <t>kmj02181004@gmail.com</t>
+  </si>
+  <si>
+    <t>dms95123@naver.com</t>
+  </si>
+  <si>
+    <t>김은별</t>
+  </si>
+  <si>
+    <t>goldmoon1217@gmail.com</t>
+  </si>
+  <si>
+    <t>소프트웨어학부 - 콘텐츠IT전공(학과)</t>
+  </si>
+  <si>
+    <t>정진영</t>
+  </si>
+  <si>
+    <t>kongpo7097@gmail.com</t>
+  </si>
+  <si>
+    <t>장예현</t>
+  </si>
+  <si>
+    <t>unsc2438@gmail.com</t>
+  </si>
+  <si>
+    <t>최찬환</t>
+  </si>
+  <si>
+    <t>jehuncho03@gmail.com</t>
+  </si>
+  <si>
+    <t>조제헌</t>
+  </si>
+  <si>
+    <t>hanam0819@naver.com</t>
+  </si>
+  <si>
+    <t>bbbbqqqq1@naver.com</t>
+  </si>
+  <si>
+    <t>장은서</t>
+  </si>
+  <si>
+    <t>joon2622@naver.com</t>
+  </si>
+  <si>
+    <t>김준</t>
+  </si>
+  <si>
+    <t>psh6992@naver.com</t>
+  </si>
+  <si>
+    <t>박서현</t>
+  </si>
+  <si>
+    <t>jinhyuncinxxs@gmail.com</t>
+  </si>
+  <si>
+    <t>손진현</t>
+  </si>
+  <si>
+    <t>mjh8429@naver.com</t>
+  </si>
+  <si>
+    <t>민지혜</t>
+  </si>
+  <si>
+    <t>me_ruddlqlsek@naver.com</t>
+  </si>
+  <si>
+    <t>홍나경</t>
+  </si>
+  <si>
+    <t>yenahpark@naver.com</t>
+  </si>
+  <si>
+    <t>박예나</t>
+  </si>
+  <si>
+    <t>kt6714@naver.com</t>
+  </si>
+  <si>
+    <t>강경태</t>
+  </si>
+  <si>
+    <t>rorita1191@naver.com</t>
+  </si>
+  <si>
+    <t>김연슬</t>
+  </si>
+  <si>
+    <t>alsdk5161@naver.com</t>
+  </si>
+  <si>
+    <t>이민아</t>
+  </si>
+  <si>
+    <t>jjmk010425@gmail.com</t>
+  </si>
+  <si>
+    <t>전재민</t>
+  </si>
+  <si>
+    <t>h01072223723@gmail.com</t>
+  </si>
+  <si>
+    <t>최정헌</t>
+  </si>
+  <si>
+    <t>sio0406@naver.com</t>
+  </si>
+  <si>
+    <t>이소이</t>
+  </si>
+  <si>
+    <t>20232593@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>yena8546@naver.com</t>
+  </si>
+  <si>
+    <t>장예나</t>
+  </si>
+  <si>
+    <t>dldmlcks56@gmail.com</t>
+  </si>
+  <si>
+    <t>이의찬</t>
+  </si>
+  <si>
+    <t>25ykrr0422@gmail.com</t>
+  </si>
+  <si>
+    <t>이정민</t>
+  </si>
+  <si>
+    <t>ohr3876@gmail.com</t>
+  </si>
+  <si>
+    <t>정철</t>
+  </si>
+  <si>
+    <t>princess040722@gmail.com</t>
+  </si>
+  <si>
+    <t>이정연</t>
+  </si>
+  <si>
+    <t>cupholderr100@gmail.com</t>
+  </si>
+  <si>
+    <t>홍민지</t>
+  </si>
+  <si>
+    <t>jayean0715@naver.com</t>
+  </si>
+  <si>
+    <t>김자연</t>
+  </si>
+  <si>
+    <t>naturally160@naver.com</t>
+  </si>
+  <si>
+    <t>홍지원</t>
+  </si>
+  <si>
+    <t>kwb905@naver.com</t>
+  </si>
+  <si>
+    <t>김우빈</t>
+  </si>
+  <si>
+    <t>sinsupal123@naver.com</t>
+  </si>
+  <si>
+    <t>신수연</t>
   </si>
 </sst>
 </file>
@@ -35938,6 +36265,2302 @@
         <v>61</v>
       </c>
     </row>
+    <row r="751">
+      <c r="A751" s="2">
+        <v>45200.77491832176</v>
+      </c>
+      <c r="B751" s="3" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C751" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D751" s="3">
+        <v>2.0222624E7</v>
+      </c>
+      <c r="E751" s="3" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F751" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G751" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H751" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I751" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J751" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K751" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L751" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N751" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="2">
+        <v>45200.775803564815</v>
+      </c>
+      <c r="B752" s="3" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C752" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D752" s="3">
+        <v>2.0182749E7</v>
+      </c>
+      <c r="E752" s="3" t="s">
+        <v>1636</v>
+      </c>
+      <c r="F752" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G752" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H752" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I752" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J752" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K752" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L752" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N752" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="2">
+        <v>45200.7761915625</v>
+      </c>
+      <c r="B753" s="3" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C753" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D753" s="3">
+        <v>2.0182506E7</v>
+      </c>
+      <c r="E753" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F753" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G753" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H753" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I753" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J753" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K753" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L753" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M753" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="2">
+        <v>45200.77917734954</v>
+      </c>
+      <c r="B754" s="3" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C754" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D754" s="3">
+        <v>2.018263E7</v>
+      </c>
+      <c r="E754" s="3" t="s">
+        <v>1639</v>
+      </c>
+      <c r="F754" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G754" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H754" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I754" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J754" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K754" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L754" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M754" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="2">
+        <v>45200.78062118056</v>
+      </c>
+      <c r="B755" s="3" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C755" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D755" s="3">
+        <v>2.0236771E7</v>
+      </c>
+      <c r="E755" s="3" t="s">
+        <v>1641</v>
+      </c>
+      <c r="F755" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G755" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H755" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I755" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J755" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K755" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L755" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M755" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="2">
+        <v>45200.78470668981</v>
+      </c>
+      <c r="B756" s="3" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C756" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D756" s="3">
+        <v>2.0225207E7</v>
+      </c>
+      <c r="E756" s="3" t="s">
+        <v>1643</v>
+      </c>
+      <c r="F756" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G756" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H756" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I756" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J756" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K756" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L756" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M756" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="2">
+        <v>45200.78635462963</v>
+      </c>
+      <c r="B757" s="3" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C757" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D757" s="3">
+        <v>2.0232957E7</v>
+      </c>
+      <c r="E757" s="3" t="s">
+        <v>1645</v>
+      </c>
+      <c r="F757" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G757" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H757" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I757" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J757" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K757" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L757" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N757" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="2">
+        <v>45200.78827664352</v>
+      </c>
+      <c r="B758" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C758" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D758" s="3">
+        <v>2.0217132E7</v>
+      </c>
+      <c r="E758" s="3" t="s">
+        <v>1647</v>
+      </c>
+      <c r="F758" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G758" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H758" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I758" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J758" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K758" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L758" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M758" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="2">
+        <v>45200.79296663194</v>
+      </c>
+      <c r="B759" s="3" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C759" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D759" s="3">
+        <v>2.0233034E7</v>
+      </c>
+      <c r="E759" s="3" t="s">
+        <v>1649</v>
+      </c>
+      <c r="F759" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G759" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H759" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I759" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J759" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K759" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L759" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M759" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="2">
+        <v>45200.79378274306</v>
+      </c>
+      <c r="B760" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C760" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D760" s="3">
+        <v>2.0233217E7</v>
+      </c>
+      <c r="E760" s="3" t="s">
+        <v>1651</v>
+      </c>
+      <c r="F760" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G760" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="H760" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I760" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J760" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K760" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L760" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M760" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="2">
+        <v>45200.79413079861</v>
+      </c>
+      <c r="B761" s="3" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C761" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D761" s="3">
+        <v>2.0192818E7</v>
+      </c>
+      <c r="E761" s="3" t="s">
+        <v>1653</v>
+      </c>
+      <c r="F761" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G761" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H761" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I761" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J761" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K761" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L761" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N761" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" s="2">
+        <v>45200.79989368055</v>
+      </c>
+      <c r="B762" s="3" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C762" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D762" s="3">
+        <v>2.0236745E7</v>
+      </c>
+      <c r="E762" s="3" t="s">
+        <v>1655</v>
+      </c>
+      <c r="F762" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G762" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H762" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I762" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J762" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K762" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L762" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N762" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" s="2">
+        <v>45200.80129128472</v>
+      </c>
+      <c r="B763" s="3" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C763" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D763" s="3">
+        <v>2.0222122E7</v>
+      </c>
+      <c r="E763" s="3" t="s">
+        <v>1657</v>
+      </c>
+      <c r="F763" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G763" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="H763" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I763" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J763" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K763" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L763" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M763" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" s="2">
+        <v>45200.80485071759</v>
+      </c>
+      <c r="B764" s="3" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C764" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D764" s="3">
+        <v>2.0233247E7</v>
+      </c>
+      <c r="E764" s="3" t="s">
+        <v>1659</v>
+      </c>
+      <c r="F764" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G764" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H764" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I764" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J764" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K764" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L764" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N764" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" s="2">
+        <v>45200.80555118056</v>
+      </c>
+      <c r="B765" s="3" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C765" s="3" t="s">
+        <v>1661</v>
+      </c>
+      <c r="D765" s="3">
+        <v>2.0236718E7</v>
+      </c>
+      <c r="E765" s="3" t="s">
+        <v>1662</v>
+      </c>
+      <c r="F765" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G765" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H765" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I765" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J765" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K765" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L765" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N765" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" s="2">
+        <v>45200.81168111111</v>
+      </c>
+      <c r="B766" s="3" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C766" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D766" s="3">
+        <v>2.023528E7</v>
+      </c>
+      <c r="E766" s="3" t="s">
+        <v>1664</v>
+      </c>
+      <c r="F766" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G766" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="H766" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I766" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J766" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K766" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L766" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M766" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" s="2">
+        <v>45200.81331008102</v>
+      </c>
+      <c r="B767" s="3" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C767" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D767" s="3">
+        <v>2.0333703E7</v>
+      </c>
+      <c r="E767" s="3" t="s">
+        <v>1666</v>
+      </c>
+      <c r="F767" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G767" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H767" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I767" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J767" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K767" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L767" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M767" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" s="2">
+        <v>45200.82481126157</v>
+      </c>
+      <c r="B768" s="3" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C768" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D768" s="3">
+        <v>2.0203628E7</v>
+      </c>
+      <c r="E768" s="3" t="s">
+        <v>1668</v>
+      </c>
+      <c r="F768" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G768" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H768" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I768" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J768" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K768" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L768" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M768" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" s="2">
+        <v>45200.825447407406</v>
+      </c>
+      <c r="B769" s="3" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C769" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D769" s="3">
+        <v>2.0213955E7</v>
+      </c>
+      <c r="E769" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="F769" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G769" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H769" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I769" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J769" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K769" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L769" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M769" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" s="2">
+        <v>45200.825792812495</v>
+      </c>
+      <c r="B770" s="3" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C770" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D770" s="3">
+        <v>2.0206644E7</v>
+      </c>
+      <c r="E770" s="3" t="s">
+        <v>1671</v>
+      </c>
+      <c r="F770" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G770" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="H770" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I770" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J770" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K770" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L770" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N770" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" s="2">
+        <v>45200.83045425926</v>
+      </c>
+      <c r="B771" s="3" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C771" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="D771" s="3">
+        <v>2.0185242E7</v>
+      </c>
+      <c r="E771" s="3" t="s">
+        <v>1673</v>
+      </c>
+      <c r="F771" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G771" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H771" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I771" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J771" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K771" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L771" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N771" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" s="2">
+        <v>45200.831682233795</v>
+      </c>
+      <c r="B772" s="3" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C772" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D772" s="3">
+        <v>2.0203406E7</v>
+      </c>
+      <c r="E772" s="3" t="s">
+        <v>1675</v>
+      </c>
+      <c r="F772" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G772" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H772" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I772" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J772" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K772" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L772" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M772" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" s="2">
+        <v>45200.8332497338</v>
+      </c>
+      <c r="B773" s="3" t="s">
+        <v>1676</v>
+      </c>
+      <c r="C773" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="D773" s="3">
+        <v>2.0172522E7</v>
+      </c>
+      <c r="E773" s="3" t="s">
+        <v>1677</v>
+      </c>
+      <c r="F773" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G773" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H773" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I773" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J773" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K773" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L773" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M773" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" s="2">
+        <v>45200.83456546297</v>
+      </c>
+      <c r="B774" s="3" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C774" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="D774" s="3">
+        <v>2.0221603E7</v>
+      </c>
+      <c r="E774" s="3" t="s">
+        <v>1679</v>
+      </c>
+      <c r="F774" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G774" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H774" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I774" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J774" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K774" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L774" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N774" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="2">
+        <v>45200.84258736111</v>
+      </c>
+      <c r="B775" s="3" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C775" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D775" s="3">
+        <v>2.0222714E7</v>
+      </c>
+      <c r="E775" s="3" t="s">
+        <v>1681</v>
+      </c>
+      <c r="F775" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G775" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="H775" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I775" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J775" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K775" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L775" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N775" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" s="2">
+        <v>45200.84759451389</v>
+      </c>
+      <c r="B776" s="3" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C776" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D776" s="3">
+        <v>2.023292E7</v>
+      </c>
+      <c r="E776" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F776" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G776" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H776" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I776" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J776" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K776" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L776" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M776" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" s="2">
+        <v>45200.848839143524</v>
+      </c>
+      <c r="B777" s="3" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C777" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D777" s="3">
+        <v>2.0232317E7</v>
+      </c>
+      <c r="E777" s="3" t="s">
+        <v>1684</v>
+      </c>
+      <c r="F777" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G777" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="H777" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I777" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J777" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K777" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L777" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N777" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" s="2">
+        <v>45200.849471504625</v>
+      </c>
+      <c r="B778" s="3" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C778" s="3" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D778" s="3">
+        <v>2.0205252E7</v>
+      </c>
+      <c r="E778" s="3" t="s">
+        <v>1687</v>
+      </c>
+      <c r="F778" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G778" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H778" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I778" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J778" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K778" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L778" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N778" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" s="2">
+        <v>45200.8597844676</v>
+      </c>
+      <c r="B779" s="3" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C779" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D779" s="3">
+        <v>2.0232354E7</v>
+      </c>
+      <c r="E779" s="3" t="s">
+        <v>1689</v>
+      </c>
+      <c r="F779" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G779" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H779" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I779" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J779" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K779" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L779" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N779" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" s="2">
+        <v>45200.864497291666</v>
+      </c>
+      <c r="B780" s="3" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C780" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="D780" s="3">
+        <v>2.0225271E7</v>
+      </c>
+      <c r="E780" s="3" t="s">
+        <v>1691</v>
+      </c>
+      <c r="F780" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G780" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H780" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I780" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J780" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K780" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L780" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M780" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" s="2">
+        <v>45200.866803240744</v>
+      </c>
+      <c r="B781" s="3" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C781" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D781" s="3">
+        <v>2.0226425E7</v>
+      </c>
+      <c r="E781" s="3" t="s">
+        <v>1693</v>
+      </c>
+      <c r="F781" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G781" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H781" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I781" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J781" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K781" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L781" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M781" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" s="2">
+        <v>45200.86726461806</v>
+      </c>
+      <c r="B782" s="3" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C782" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D782" s="3">
+        <v>2.0207067E7</v>
+      </c>
+      <c r="E782" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="F782" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G782" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H782" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I782" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J782" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K782" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L782" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N782" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" s="2">
+        <v>45200.86848832176</v>
+      </c>
+      <c r="B783" s="3" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C783" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D783" s="3">
+        <v>2.0233246E7</v>
+      </c>
+      <c r="E783" s="3" t="s">
+        <v>1696</v>
+      </c>
+      <c r="F783" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G783" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H783" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I783" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J783" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K783" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L783" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M783" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" s="2">
+        <v>45200.87159109954</v>
+      </c>
+      <c r="B784" s="3" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C784" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D784" s="3">
+        <v>2.020241E7</v>
+      </c>
+      <c r="E784" s="3" t="s">
+        <v>1698</v>
+      </c>
+      <c r="F784" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G784" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H784" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I784" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J784" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K784" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L784" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N784" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" s="2">
+        <v>45200.87722297454</v>
+      </c>
+      <c r="B785" s="3" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C785" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D785" s="3">
+        <v>2.0212212E7</v>
+      </c>
+      <c r="E785" s="3" t="s">
+        <v>1700</v>
+      </c>
+      <c r="F785" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G785" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H785" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I785" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J785" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K785" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L785" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M785" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" s="2">
+        <v>45200.87791201389</v>
+      </c>
+      <c r="B786" s="3" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C786" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D786" s="3">
+        <v>2.0231219E7</v>
+      </c>
+      <c r="E786" s="3" t="s">
+        <v>1702</v>
+      </c>
+      <c r="F786" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G786" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="H786" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I786" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J786" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K786" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L786" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N786" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="2">
+        <v>45200.88075693287</v>
+      </c>
+      <c r="B787" s="3" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C787" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D787" s="3">
+        <v>2.0192535E7</v>
+      </c>
+      <c r="E787" s="3" t="s">
+        <v>1704</v>
+      </c>
+      <c r="F787" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G787" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H787" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I787" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J787" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K787" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L787" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M787" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="2">
+        <v>45200.8807682176</v>
+      </c>
+      <c r="B788" s="3" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C788" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D788" s="3">
+        <v>2.023124E7</v>
+      </c>
+      <c r="E788" s="3" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F788" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G788" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H788" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I788" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J788" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K788" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L788" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N788" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="2">
+        <v>45200.88083253472</v>
+      </c>
+      <c r="B789" s="3" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C789" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="D789" s="3">
+        <v>2.0221035E7</v>
+      </c>
+      <c r="E789" s="3" t="s">
+        <v>1708</v>
+      </c>
+      <c r="F789" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G789" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H789" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I789" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J789" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K789" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L789" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M789" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="2">
+        <v>45200.88148967593</v>
+      </c>
+      <c r="B790" s="3" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C790" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D790" s="3">
+        <v>2.0172801E7</v>
+      </c>
+      <c r="E790" s="3" t="s">
+        <v>1710</v>
+      </c>
+      <c r="F790" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G790" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H790" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I790" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J790" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K790" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L790" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N790" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="2">
+        <v>45200.88564850694</v>
+      </c>
+      <c r="B791" s="3" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C791" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D791" s="3">
+        <v>2.0236225E7</v>
+      </c>
+      <c r="E791" s="3" t="s">
+        <v>1712</v>
+      </c>
+      <c r="F791" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G791" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H791" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I791" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J791" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K791" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L791" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M791" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="2">
+        <v>45200.88615564815</v>
+      </c>
+      <c r="B792" s="3" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C792" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D792" s="3">
+        <v>2.0192225E7</v>
+      </c>
+      <c r="E792" s="3" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F792" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G792" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H792" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I792" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J792" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K792" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L792" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N792" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" s="2">
+        <v>45200.88982125</v>
+      </c>
+      <c r="B793" s="3" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C793" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D793" s="3">
+        <v>2.0205248E7</v>
+      </c>
+      <c r="E793" s="3" t="s">
+        <v>1716</v>
+      </c>
+      <c r="F793" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G793" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H793" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I793" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J793" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K793" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L793" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N793" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" s="2">
+        <v>45200.89054015046</v>
+      </c>
+      <c r="B794" s="3" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C794" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D794" s="3">
+        <v>2.0235271E7</v>
+      </c>
+      <c r="E794" s="3" t="s">
+        <v>1718</v>
+      </c>
+      <c r="F794" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G794" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H794" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I794" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J794" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K794" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L794" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M794" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" s="2">
+        <v>45200.892383541664</v>
+      </c>
+      <c r="B795" s="3" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C795" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D795" s="3">
+        <v>2.0232737E7</v>
+      </c>
+      <c r="E795" s="3" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F795" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G795" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H795" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I795" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J795" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K795" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L795" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N795" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" s="2">
+        <v>45200.893181782405</v>
+      </c>
+      <c r="B796" s="3" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C796" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D796" s="3">
+        <v>2.0232593E7</v>
+      </c>
+      <c r="E796" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="F796" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G796" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H796" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I796" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J796" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K796" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L796" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M796" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" s="2">
+        <v>45200.89399009259</v>
+      </c>
+      <c r="B797" s="3" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C797" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D797" s="3">
+        <v>2.0233025E7</v>
+      </c>
+      <c r="E797" s="3" t="s">
+        <v>1723</v>
+      </c>
+      <c r="F797" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G797" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="H797" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I797" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J797" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K797" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L797" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N797" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" s="2">
+        <v>45200.89628108796</v>
+      </c>
+      <c r="B798" s="3" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C798" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D798" s="3">
+        <v>2.0173144E7</v>
+      </c>
+      <c r="E798" s="3" t="s">
+        <v>1725</v>
+      </c>
+      <c r="F798" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G798" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="H798" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I798" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J798" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K798" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L798" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N798" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" s="2">
+        <v>45200.90108789352</v>
+      </c>
+      <c r="B799" s="3" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C799" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="D799" s="3">
+        <v>2.023524E7</v>
+      </c>
+      <c r="E799" s="3" t="s">
+        <v>1727</v>
+      </c>
+      <c r="F799" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G799" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H799" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I799" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J799" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K799" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L799" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M799" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" s="2">
+        <v>45200.902980486106</v>
+      </c>
+      <c r="B800" s="3" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C800" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D800" s="3">
+        <v>2.0233035E7</v>
+      </c>
+      <c r="E800" s="3" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F800" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G800" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H800" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I800" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J800" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K800" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L800" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M800" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" s="2">
+        <v>45200.90394278935</v>
+      </c>
+      <c r="B801" s="3" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C801" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D801" s="3">
+        <v>2.0232232E7</v>
+      </c>
+      <c r="E801" s="3" t="s">
+        <v>1731</v>
+      </c>
+      <c r="F801" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G801" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H801" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I801" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J801" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K801" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L801" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M801" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" s="2">
+        <v>45200.90451184028</v>
+      </c>
+      <c r="B802" s="3" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C802" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D802" s="3">
+        <v>2.0232592E7</v>
+      </c>
+      <c r="E802" s="3" t="s">
+        <v>1733</v>
+      </c>
+      <c r="F802" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G802" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="H802" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I802" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J802" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K802" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L802" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N802" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" s="2">
+        <v>45200.90886429398</v>
+      </c>
+      <c r="B803" s="3" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C803" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D803" s="3">
+        <v>2.0233918E7</v>
+      </c>
+      <c r="E803" s="3" t="s">
+        <v>1735</v>
+      </c>
+      <c r="F803" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G803" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H803" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I803" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J803" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K803" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L803" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M803" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" s="2">
+        <v>45200.91008068287</v>
+      </c>
+      <c r="B804" s="3" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C804" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D804" s="3">
+        <v>2.0233852E7</v>
+      </c>
+      <c r="E804" s="3" t="s">
+        <v>1737</v>
+      </c>
+      <c r="F804" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G804" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H804" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I804" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J804" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K804" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L804" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N804" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" s="2">
+        <v>45200.911682881946</v>
+      </c>
+      <c r="B805" s="3" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C805" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D805" s="3">
+        <v>2.0232607E7</v>
+      </c>
+      <c r="E805" s="3" t="s">
+        <v>1739</v>
+      </c>
+      <c r="F805" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G805" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H805" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I805" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J805" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K805" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L805" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M805" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" s="2">
+        <v>45200.91393863426</v>
+      </c>
+      <c r="B806" s="3" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C806" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="D806" s="3">
+        <v>2.0232977E7</v>
+      </c>
+      <c r="E806" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="F806" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G806" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H806" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I806" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J806" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K806" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L806" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M806" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/R/data/quiz230918_tmp.xlsx
+++ b/R/data/quiz230918_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8063" uniqueCount="1742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8593" uniqueCount="1845">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -5237,6 +5237,315 @@
   </si>
   <si>
     <t>신수연</t>
+  </si>
+  <si>
+    <t>psmin0217@naver.com</t>
+  </si>
+  <si>
+    <t>박성민</t>
+  </si>
+  <si>
+    <t>kwonyb991111@naver.com</t>
+  </si>
+  <si>
+    <t>권용범</t>
+  </si>
+  <si>
+    <t>yoodj4424@gmail.com</t>
+  </si>
+  <si>
+    <t>유동재</t>
+  </si>
+  <si>
+    <t>sykim09050905@gmail.com</t>
+  </si>
+  <si>
+    <t>김승연</t>
+  </si>
+  <si>
+    <t>khm1785@naver.com</t>
+  </si>
+  <si>
+    <t>김효민</t>
+  </si>
+  <si>
+    <t>jgw1274@naver.com</t>
+  </si>
+  <si>
+    <t>정근원</t>
+  </si>
+  <si>
+    <t>hanseung241@gmail.com</t>
+  </si>
+  <si>
+    <t>조한승</t>
+  </si>
+  <si>
+    <t>rlawlsvy234@gmail.com</t>
+  </si>
+  <si>
+    <t>김진표</t>
+  </si>
+  <si>
+    <t>guswhd1414@naver.com</t>
+  </si>
+  <si>
+    <t>chagaeun0906@gmail.com</t>
+  </si>
+  <si>
+    <t>최가은</t>
+  </si>
+  <si>
+    <t>6893rlawns@gmail.com</t>
+  </si>
+  <si>
+    <t>데이터사이언스학과</t>
+  </si>
+  <si>
+    <t>sojeong12177@gmail.com</t>
+  </si>
+  <si>
+    <t>소정</t>
+  </si>
+  <si>
+    <t>seominjun543@gmail.com</t>
+  </si>
+  <si>
+    <t>서민준</t>
+  </si>
+  <si>
+    <t>nhj010521@gmail.com</t>
+  </si>
+  <si>
+    <t>노형준</t>
+  </si>
+  <si>
+    <t>kyjnkyj@naver.com</t>
+  </si>
+  <si>
+    <t>김윤지</t>
+  </si>
+  <si>
+    <t>leejisu0909@naver.com</t>
+  </si>
+  <si>
+    <t>haohao873@nver.com</t>
+  </si>
+  <si>
+    <t>안지연</t>
+  </si>
+  <si>
+    <t>jay003@naver.com</t>
+  </si>
+  <si>
+    <t>kjm5556_sw@naver.com</t>
+  </si>
+  <si>
+    <t>권지민</t>
+  </si>
+  <si>
+    <t>shni92@naver.com</t>
+  </si>
+  <si>
+    <t>김서현</t>
+  </si>
+  <si>
+    <t>angelnhs@naver.com</t>
+  </si>
+  <si>
+    <t>남현수</t>
+  </si>
+  <si>
+    <t>pcb20043935@gmail.com</t>
+  </si>
+  <si>
+    <t>박찬빈</t>
+  </si>
+  <si>
+    <t>dlrmsdud0223@naver.com</t>
+  </si>
+  <si>
+    <t>데이터 사이언스 학부</t>
+  </si>
+  <si>
+    <t>이근영</t>
+  </si>
+  <si>
+    <t>kmj10456@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">김명주 </t>
+  </si>
+  <si>
+    <t>wndltkr@gmail.com</t>
+  </si>
+  <si>
+    <t>주이삭</t>
+  </si>
+  <si>
+    <t>parkjiune@naver.com</t>
+  </si>
+  <si>
+    <t>audri01@naver.com</t>
+  </si>
+  <si>
+    <t>이승아</t>
+  </si>
+  <si>
+    <t>baeih15@naver.com</t>
+  </si>
+  <si>
+    <t>배임호</t>
+  </si>
+  <si>
+    <t>yumsan1305@gmail.com</t>
+  </si>
+  <si>
+    <t>최재경</t>
+  </si>
+  <si>
+    <t>ybumma4@gmail.com</t>
+  </si>
+  <si>
+    <t>이지원</t>
+  </si>
+  <si>
+    <t>leejs16511@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 빅데이터</t>
+  </si>
+  <si>
+    <t>이정선</t>
+  </si>
+  <si>
+    <t>y23220124@gmail.com</t>
+  </si>
+  <si>
+    <t>gata0523@gmail.com</t>
+  </si>
+  <si>
+    <t>서형록</t>
+  </si>
+  <si>
+    <t>daffodil1215@gmail.com</t>
+  </si>
+  <si>
+    <t>임원준</t>
+  </si>
+  <si>
+    <t>tjdalsqkdrk@gmail.com</t>
+  </si>
+  <si>
+    <t>오성민</t>
+  </si>
+  <si>
+    <t>smile001118@naver.com</t>
+  </si>
+  <si>
+    <t>홍성준</t>
+  </si>
+  <si>
+    <t>hamy7@naver.com</t>
+  </si>
+  <si>
+    <t>이욱항</t>
+  </si>
+  <si>
+    <t>jessica7096@naver.com</t>
+  </si>
+  <si>
+    <t>김보영</t>
+  </si>
+  <si>
+    <t>nah65432@naver.com</t>
+  </si>
+  <si>
+    <t>김나현</t>
+  </si>
+  <si>
+    <t>6405street@naver.com</t>
+  </si>
+  <si>
+    <t>김지우</t>
+  </si>
+  <si>
+    <t>limsoowan@naver.com</t>
+  </si>
+  <si>
+    <t>임수완</t>
+  </si>
+  <si>
+    <t>juliaqkrwpdm@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>박제은</t>
+  </si>
+  <si>
+    <t>shonshon7@naver.com</t>
+  </si>
+  <si>
+    <t>임소연</t>
+  </si>
+  <si>
+    <t>foxhslee@naver.com</t>
+  </si>
+  <si>
+    <t>이효성</t>
+  </si>
+  <si>
+    <t>dksdksqh1018@naver.com</t>
+  </si>
+  <si>
+    <t>안보민</t>
+  </si>
+  <si>
+    <t>pyjun0607@gmail.com</t>
+  </si>
+  <si>
+    <t>박연준</t>
+  </si>
+  <si>
+    <t>ali0030227@gmail.com</t>
+  </si>
+  <si>
+    <t>baekstark@naver.com</t>
+  </si>
+  <si>
+    <t>백준서</t>
+  </si>
+  <si>
+    <t>halu365@naver.com</t>
+  </si>
+  <si>
+    <t>전교담</t>
+  </si>
+  <si>
+    <t>sjy020310@naver.com</t>
+  </si>
+  <si>
+    <t>송진용</t>
+  </si>
+  <si>
+    <t>jinny1804@naver.com</t>
+  </si>
+  <si>
+    <t>박윤진</t>
+  </si>
+  <si>
+    <t>nanadiana222@naver.com</t>
+  </si>
+  <si>
+    <t>빅데이터과</t>
+  </si>
+  <si>
+    <t>조희진</t>
+  </si>
+  <si>
+    <t>syc020916@naver.com</t>
+  </si>
+  <si>
+    <t>조신영</t>
   </si>
 </sst>
 </file>
@@ -38561,6 +38870,2179 @@
         <v>30</v>
       </c>
     </row>
+    <row r="807">
+      <c r="A807" s="2">
+        <v>45200.91880032407</v>
+      </c>
+      <c r="B807" s="3" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C807" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="D807" s="3">
+        <v>2.0215155E7</v>
+      </c>
+      <c r="E807" s="3" t="s">
+        <v>1743</v>
+      </c>
+      <c r="F807" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G807" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H807" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I807" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J807" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K807" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L807" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M807" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" s="2">
+        <v>45200.9199500463</v>
+      </c>
+      <c r="B808" s="3" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C808" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D808" s="3">
+        <v>2.0183401E7</v>
+      </c>
+      <c r="E808" s="3" t="s">
+        <v>1745</v>
+      </c>
+      <c r="F808" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G808" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="H808" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I808" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J808" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K808" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L808" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M808" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" s="2">
+        <v>45200.92045967592</v>
+      </c>
+      <c r="B809" s="3" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C809" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="D809" s="3">
+        <v>2.0233232E7</v>
+      </c>
+      <c r="E809" s="3" t="s">
+        <v>1747</v>
+      </c>
+      <c r="F809" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G809" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H809" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I809" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J809" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K809" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L809" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N809" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" s="2">
+        <v>45200.92128733796</v>
+      </c>
+      <c r="B810" s="3" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C810" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D810" s="3">
+        <v>2.0236223E7</v>
+      </c>
+      <c r="E810" s="3" t="s">
+        <v>1749</v>
+      </c>
+      <c r="F810" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G810" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H810" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I810" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J810" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K810" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L810" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N810" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" s="2">
+        <v>45200.922505069444</v>
+      </c>
+      <c r="B811" s="3" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C811" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D811" s="3">
+        <v>2.0236233E7</v>
+      </c>
+      <c r="E811" s="3" t="s">
+        <v>1751</v>
+      </c>
+      <c r="F811" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G811" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H811" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I811" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J811" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K811" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L811" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M811" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" s="2">
+        <v>45200.925339849535</v>
+      </c>
+      <c r="B812" s="3" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C812" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D812" s="3">
+        <v>2.0223427E7</v>
+      </c>
+      <c r="E812" s="3" t="s">
+        <v>1753</v>
+      </c>
+      <c r="F812" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G812" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H812" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I812" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J812" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K812" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L812" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N812" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" s="2">
+        <v>45200.925897442125</v>
+      </c>
+      <c r="B813" s="3" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C813" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D813" s="3">
+        <v>2.0235261E7</v>
+      </c>
+      <c r="E813" s="3" t="s">
+        <v>1755</v>
+      </c>
+      <c r="F813" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G813" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H813" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I813" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J813" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K813" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L813" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N813" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" s="2">
+        <v>45200.92761271991</v>
+      </c>
+      <c r="B814" s="3" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C814" s="3" t="s">
+        <v>953</v>
+      </c>
+      <c r="D814" s="3">
+        <v>2.0193316E7</v>
+      </c>
+      <c r="E814" s="3" t="s">
+        <v>1757</v>
+      </c>
+      <c r="F814" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G814" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H814" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I814" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J814" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K814" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L814" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N814" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" s="2">
+        <v>45200.92871331019</v>
+      </c>
+      <c r="B815" s="3" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C815" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D815" s="3">
+        <v>2.0193917E7</v>
+      </c>
+      <c r="E815" s="3" t="s">
+        <v>1361</v>
+      </c>
+      <c r="F815" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G815" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H815" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I815" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J815" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K815" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L815" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M815" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" s="2">
+        <v>45200.935179583335</v>
+      </c>
+      <c r="B816" s="3" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C816" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D816" s="3">
+        <v>2.0233736E7</v>
+      </c>
+      <c r="E816" s="3" t="s">
+        <v>1760</v>
+      </c>
+      <c r="F816" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G816" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H816" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I816" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J816" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K816" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L816" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M816" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" s="2">
+        <v>45200.935558530095</v>
+      </c>
+      <c r="B817" s="3" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C817" s="3" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D817" s="3">
+        <v>2.0233212E7</v>
+      </c>
+      <c r="E817" s="3" t="s">
+        <v>1698</v>
+      </c>
+      <c r="F817" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G817" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H817" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I817" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J817" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K817" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L817" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N817" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" s="2">
+        <v>45200.93706474537</v>
+      </c>
+      <c r="B818" s="3" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C818" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D818" s="3">
+        <v>2.0232332E7</v>
+      </c>
+      <c r="E818" s="3" t="s">
+        <v>1764</v>
+      </c>
+      <c r="F818" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G818" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H818" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I818" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J818" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K818" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L818" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M818" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" s="2">
+        <v>45200.9390570949</v>
+      </c>
+      <c r="B819" s="3" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C819" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D819" s="3">
+        <v>2.0235183E7</v>
+      </c>
+      <c r="E819" s="3" t="s">
+        <v>1766</v>
+      </c>
+      <c r="F819" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G819" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H819" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I819" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J819" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K819" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L819" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N819" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" s="2">
+        <v>45200.94231653935</v>
+      </c>
+      <c r="B820" s="3" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C820" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D820" s="3">
+        <v>2.0231214E7</v>
+      </c>
+      <c r="E820" s="3" t="s">
+        <v>1768</v>
+      </c>
+      <c r="F820" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G820" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="H820" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I820" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J820" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K820" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L820" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N820" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" s="2">
+        <v>45200.94319892361</v>
+      </c>
+      <c r="B821" s="3" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C821" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D821" s="3">
+        <v>2.023321E7</v>
+      </c>
+      <c r="E821" s="3" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F821" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G821" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H821" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I821" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J821" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K821" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L821" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M821" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" s="2">
+        <v>45200.94583331019</v>
+      </c>
+      <c r="B822" s="3" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C822" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D822" s="3">
+        <v>2.020334E7</v>
+      </c>
+      <c r="E822" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F822" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G822" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H822" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I822" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J822" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K822" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L822" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M822" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" s="2">
+        <v>45200.949683750005</v>
+      </c>
+      <c r="B823" s="3" t="s">
+        <v>1772</v>
+      </c>
+      <c r="C823" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D823" s="3">
+        <v>2.0231525E7</v>
+      </c>
+      <c r="E823" s="3" t="s">
+        <v>1773</v>
+      </c>
+      <c r="F823" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G823" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H823" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I823" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J823" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K823" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L823" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N823" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" s="2">
+        <v>45200.95072355324</v>
+      </c>
+      <c r="B824" s="3" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C824" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D824" s="3">
+        <v>2.023231E7</v>
+      </c>
+      <c r="E824" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="F824" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G824" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H824" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I824" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J824" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K824" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L824" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N824" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" s="2">
+        <v>45200.95245239583</v>
+      </c>
+      <c r="B825" s="3" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C825" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D825" s="3">
+        <v>2.0222102E7</v>
+      </c>
+      <c r="E825" s="3" t="s">
+        <v>1776</v>
+      </c>
+      <c r="F825" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G825" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H825" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I825" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J825" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K825" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L825" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N825" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" s="2">
+        <v>45200.953293645834</v>
+      </c>
+      <c r="B826" s="3" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C826" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D826" s="3">
+        <v>2.0236606E7</v>
+      </c>
+      <c r="E826" s="3" t="s">
+        <v>1778</v>
+      </c>
+      <c r="F826" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G826" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H826" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I826" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J826" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K826" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L826" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N826" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" s="2">
+        <v>45200.954289050926</v>
+      </c>
+      <c r="B827" s="3" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C827" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D827" s="3">
+        <v>2.0236234E7</v>
+      </c>
+      <c r="E827" s="3" t="s">
+        <v>1780</v>
+      </c>
+      <c r="F827" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G827" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H827" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I827" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J827" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K827" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L827" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M827" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" s="2">
+        <v>45200.95450325232</v>
+      </c>
+      <c r="B828" s="3" t="s">
+        <v>1781</v>
+      </c>
+      <c r="C828" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D828" s="3">
+        <v>2.0236728E7</v>
+      </c>
+      <c r="E828" s="3" t="s">
+        <v>1782</v>
+      </c>
+      <c r="F828" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G828" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H828" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I828" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J828" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K828" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L828" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M828" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" s="2">
+        <v>45200.955335624996</v>
+      </c>
+      <c r="B829" s="3" t="s">
+        <v>1783</v>
+      </c>
+      <c r="C829" s="3" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D829" s="3">
+        <v>2.0233234E7</v>
+      </c>
+      <c r="E829" s="3" t="s">
+        <v>1785</v>
+      </c>
+      <c r="F829" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G829" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="H829" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I829" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J829" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K829" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L829" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M829" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" s="2">
+        <v>45200.95760995371</v>
+      </c>
+      <c r="B830" s="3" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C830" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D830" s="3">
+        <v>2.0232104E7</v>
+      </c>
+      <c r="E830" s="3" t="s">
+        <v>1787</v>
+      </c>
+      <c r="F830" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G830" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H830" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I830" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J830" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K830" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L830" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N830" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" s="2">
+        <v>45200.96020446759</v>
+      </c>
+      <c r="B831" s="3" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C831" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D831" s="3">
+        <v>2.0185168E7</v>
+      </c>
+      <c r="E831" s="3" t="s">
+        <v>1789</v>
+      </c>
+      <c r="F831" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G831" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H831" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I831" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J831" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K831" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L831" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N831" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" s="2">
+        <v>45200.963132233795</v>
+      </c>
+      <c r="B832" s="3" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C832" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D832" s="3">
+        <v>2.0232961E7</v>
+      </c>
+      <c r="E832" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="F832" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G832" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H832" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I832" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J832" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K832" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L832" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M832" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" s="2">
+        <v>45200.963275208334</v>
+      </c>
+      <c r="B833" s="3" t="s">
+        <v>1791</v>
+      </c>
+      <c r="C833" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D833" s="3">
+        <v>2.0203639E7</v>
+      </c>
+      <c r="E833" s="3" t="s">
+        <v>1792</v>
+      </c>
+      <c r="F833" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G833" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H833" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I833" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J833" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K833" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L833" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N833" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" s="2">
+        <v>45200.96520767361</v>
+      </c>
+      <c r="B834" s="3" t="s">
+        <v>1793</v>
+      </c>
+      <c r="C834" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D834" s="3">
+        <v>2.022517E7</v>
+      </c>
+      <c r="E834" s="3" t="s">
+        <v>1794</v>
+      </c>
+      <c r="F834" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G834" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="H834" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I834" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J834" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K834" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L834" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N834" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" s="2">
+        <v>45200.96537548611</v>
+      </c>
+      <c r="B835" s="3" t="s">
+        <v>1795</v>
+      </c>
+      <c r="C835" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D835" s="3">
+        <v>2.023527E7</v>
+      </c>
+      <c r="E835" s="3" t="s">
+        <v>1796</v>
+      </c>
+      <c r="F835" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G835" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H835" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I835" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J835" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K835" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L835" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M835" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" s="2">
+        <v>45200.965586481485</v>
+      </c>
+      <c r="B836" s="3" t="s">
+        <v>1797</v>
+      </c>
+      <c r="C836" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D836" s="3">
+        <v>2.0226152E7</v>
+      </c>
+      <c r="E836" s="3" t="s">
+        <v>1798</v>
+      </c>
+      <c r="F836" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G836" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H836" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I836" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J836" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K836" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L836" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M836" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" s="2">
+        <v>45200.96962509259</v>
+      </c>
+      <c r="B837" s="3" t="s">
+        <v>1799</v>
+      </c>
+      <c r="C837" s="3" t="s">
+        <v>1800</v>
+      </c>
+      <c r="D837" s="3">
+        <v>2.0225225E7</v>
+      </c>
+      <c r="E837" s="3" t="s">
+        <v>1801</v>
+      </c>
+      <c r="F837" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G837" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H837" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I837" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J837" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K837" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L837" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N837" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" s="2">
+        <v>45200.97047266204</v>
+      </c>
+      <c r="B838" s="3" t="s">
+        <v>1802</v>
+      </c>
+      <c r="C838" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D838" s="3">
+        <v>2.0222225E7</v>
+      </c>
+      <c r="E838" s="3" t="s">
+        <v>977</v>
+      </c>
+      <c r="F838" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G838" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H838" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I838" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J838" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K838" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L838" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M838" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" s="2">
+        <v>45200.972956921294</v>
+      </c>
+      <c r="B839" s="3" t="s">
+        <v>1803</v>
+      </c>
+      <c r="C839" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D839" s="3">
+        <v>2.0235188E7</v>
+      </c>
+      <c r="E839" s="3" t="s">
+        <v>1804</v>
+      </c>
+      <c r="F839" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G839" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H839" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I839" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J839" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K839" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L839" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M839" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" s="2">
+        <v>45200.974868680554</v>
+      </c>
+      <c r="B840" s="3" t="s">
+        <v>1805</v>
+      </c>
+      <c r="C840" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D840" s="3">
+        <v>2.0236768E7</v>
+      </c>
+      <c r="E840" s="3" t="s">
+        <v>1806</v>
+      </c>
+      <c r="F840" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G840" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H840" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I840" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J840" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K840" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L840" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N840" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" s="2">
+        <v>45200.97629497685</v>
+      </c>
+      <c r="B841" s="3" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C841" s="3" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D841" s="3">
+        <v>2.023323E7</v>
+      </c>
+      <c r="E841" s="3" t="s">
+        <v>1808</v>
+      </c>
+      <c r="F841" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G841" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H841" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I841" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J841" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K841" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L841" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M841" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" s="2">
+        <v>45200.9767015625</v>
+      </c>
+      <c r="B842" s="3" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C842" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D842" s="3">
+        <v>2.022224E7</v>
+      </c>
+      <c r="E842" s="3" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F842" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G842" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H842" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I842" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J842" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K842" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L842" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M842" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" s="2">
+        <v>45200.97671587963</v>
+      </c>
+      <c r="B843" s="3" t="s">
+        <v>1811</v>
+      </c>
+      <c r="C843" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D843" s="3">
+        <v>2.0233834E7</v>
+      </c>
+      <c r="E843" s="3" t="s">
+        <v>1812</v>
+      </c>
+      <c r="F843" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G843" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H843" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I843" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J843" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K843" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L843" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M843" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" s="2">
+        <v>45200.977347754626</v>
+      </c>
+      <c r="B844" s="3" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C844" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D844" s="3">
+        <v>2.0221705E7</v>
+      </c>
+      <c r="E844" s="3" t="s">
+        <v>1814</v>
+      </c>
+      <c r="F844" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G844" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="H844" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I844" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J844" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K844" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L844" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N844" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" s="2">
+        <v>45200.977439560185</v>
+      </c>
+      <c r="B845" s="3" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C845" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D845" s="3">
+        <v>2.0232918E7</v>
+      </c>
+      <c r="E845" s="3" t="s">
+        <v>1816</v>
+      </c>
+      <c r="F845" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G845" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H845" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I845" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J845" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K845" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L845" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M845" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" s="2">
+        <v>45200.97836675926</v>
+      </c>
+      <c r="B846" s="3" t="s">
+        <v>1817</v>
+      </c>
+      <c r="C846" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D846" s="3">
+        <v>2.0212932E7</v>
+      </c>
+      <c r="E846" s="3" t="s">
+        <v>1818</v>
+      </c>
+      <c r="F846" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G846" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H846" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I846" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J846" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K846" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L846" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M846" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" s="2">
+        <v>45200.97845905092</v>
+      </c>
+      <c r="B847" s="3" t="s">
+        <v>1819</v>
+      </c>
+      <c r="C847" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D847" s="3">
+        <v>2.0224138E7</v>
+      </c>
+      <c r="E847" s="3" t="s">
+        <v>1820</v>
+      </c>
+      <c r="F847" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G847" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H847" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I847" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J847" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K847" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L847" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N847" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" s="2">
+        <v>45200.98081140046</v>
+      </c>
+      <c r="B848" s="3" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C848" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D848" s="3">
+        <v>2.0236241E7</v>
+      </c>
+      <c r="E848" s="3" t="s">
+        <v>1822</v>
+      </c>
+      <c r="F848" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G848" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H848" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I848" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J848" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K848" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L848" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M848" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" s="2">
+        <v>45200.98086228009</v>
+      </c>
+      <c r="B849" s="3" t="s">
+        <v>1823</v>
+      </c>
+      <c r="C849" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D849" s="3">
+        <v>2.0231079E7</v>
+      </c>
+      <c r="E849" s="3" t="s">
+        <v>1824</v>
+      </c>
+      <c r="F849" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G849" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H849" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I849" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J849" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K849" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L849" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M849" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" s="2">
+        <v>45200.98093748842</v>
+      </c>
+      <c r="B850" s="3" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C850" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D850" s="3">
+        <v>2.0232568E7</v>
+      </c>
+      <c r="E850" s="3" t="s">
+        <v>1826</v>
+      </c>
+      <c r="F850" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G850" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H850" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I850" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J850" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K850" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L850" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N850" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" s="2">
+        <v>45200.982879965275</v>
+      </c>
+      <c r="B851" s="3" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C851" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D851" s="3">
+        <v>2.0232549E7</v>
+      </c>
+      <c r="E851" s="3" t="s">
+        <v>1828</v>
+      </c>
+      <c r="F851" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G851" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H851" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I851" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J851" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K851" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L851" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N851" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" s="2">
+        <v>45200.983425949074</v>
+      </c>
+      <c r="B852" s="3" t="s">
+        <v>1829</v>
+      </c>
+      <c r="C852" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D852" s="3">
+        <v>2.0235168E7</v>
+      </c>
+      <c r="E852" s="3" t="s">
+        <v>1830</v>
+      </c>
+      <c r="F852" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G852" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H852" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I852" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J852" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K852" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L852" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N852" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" s="2">
+        <v>45200.98463457176</v>
+      </c>
+      <c r="B853" s="3" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C853" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="D853" s="3">
+        <v>2.0221011E7</v>
+      </c>
+      <c r="E853" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="F853" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G853" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H853" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I853" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J853" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K853" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L853" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N853" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" s="2">
+        <v>45200.98566590278</v>
+      </c>
+      <c r="B854" s="3" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C854" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="D854" s="3">
+        <v>2.0221044E7</v>
+      </c>
+      <c r="E854" s="3" t="s">
+        <v>1833</v>
+      </c>
+      <c r="F854" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G854" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H854" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I854" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J854" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K854" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L854" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M854" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" s="2">
+        <v>45200.98687467593</v>
+      </c>
+      <c r="B855" s="3" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C855" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D855" s="3">
+        <v>2.0182136E7</v>
+      </c>
+      <c r="E855" s="3" t="s">
+        <v>1835</v>
+      </c>
+      <c r="F855" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G855" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H855" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I855" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J855" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K855" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L855" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M855" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" s="2">
+        <v>45200.98929715277</v>
+      </c>
+      <c r="B856" s="3" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C856" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D856" s="3">
+        <v>2.021662E7</v>
+      </c>
+      <c r="E856" s="3" t="s">
+        <v>1837</v>
+      </c>
+      <c r="F856" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G856" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H856" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I856" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J856" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K856" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L856" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N856" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" s="2">
+        <v>45200.9902858912</v>
+      </c>
+      <c r="B857" s="3" t="s">
+        <v>1838</v>
+      </c>
+      <c r="C857" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="D857" s="3">
+        <v>2.0192213E7</v>
+      </c>
+      <c r="E857" s="3" t="s">
+        <v>1839</v>
+      </c>
+      <c r="F857" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G857" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H857" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I857" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J857" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K857" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L857" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N857" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" s="2">
+        <v>45200.99315068287</v>
+      </c>
+      <c r="B858" s="3" t="s">
+        <v>1840</v>
+      </c>
+      <c r="C858" s="3" t="s">
+        <v>1841</v>
+      </c>
+      <c r="D858" s="3">
+        <v>2.0225261E7</v>
+      </c>
+      <c r="E858" s="3" t="s">
+        <v>1842</v>
+      </c>
+      <c r="F858" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G858" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H858" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I858" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J858" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K858" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L858" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M858" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" s="2">
+        <v>45200.99385208334</v>
+      </c>
+      <c r="B859" s="3" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C859" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D859" s="3">
+        <v>2.0226166E7</v>
+      </c>
+      <c r="E859" s="3" t="s">
+        <v>1844</v>
+      </c>
+      <c r="F859" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G859" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H859" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I859" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J859" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K859" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L859" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M859" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
